--- a/Analysis/Output/Reg2ct_Rob.xlsx
+++ b/Analysis/Output/Reg2ct_Rob.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t xml:space="preserve">term</t>
   </si>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t xml:space="preserve">WalkUP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleFam</t>
   </si>
   <si>
     <t xml:space="preserve">factor(LUC)Agriculture</t>
@@ -674,40 +677,40 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>5.05361754423434</v>
+        <v>5.06850230866613</v>
       </c>
       <c r="C2" t="n">
-        <v>13.8718448058947</v>
+        <v>13.8724025406408</v>
       </c>
       <c r="D2" t="n">
-        <v>0.364307531907137</v>
+        <v>0.365365861740052</v>
       </c>
       <c r="E2" t="n">
-        <v>0.722433267448578</v>
+        <v>0.721666142868423</v>
       </c>
       <c r="F2" t="n">
-        <v>2.66593339069761</v>
+        <v>2.67935743380232</v>
       </c>
       <c r="G2" t="n">
-        <v>19.6406167624572</v>
+        <v>19.6424476114898</v>
       </c>
       <c r="H2" t="n">
-        <v>0.135735726781937</v>
+        <v>0.136406495096621</v>
       </c>
       <c r="I2" t="n">
-        <v>0.894434079099465</v>
+        <v>0.893916270654194</v>
       </c>
       <c r="J2" t="n">
-        <v>12.3716870551251</v>
+        <v>12.3713068699875</v>
       </c>
       <c r="K2" t="n">
-        <v>0.11496147192469</v>
+        <v>0.116115426862835</v>
       </c>
       <c r="L2" t="n">
-        <v>107.615941654172</v>
+        <v>106.543180387232</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0000000000000111831570055387</v>
+        <v>0.0000000000000113130136430673</v>
       </c>
       <c r="N2" t="n">
         <v>12.7703335576643</v>
@@ -751,40 +754,40 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>0.00489626439130862</v>
+        <v>0.00492492495605609</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0086292105531197</v>
+        <v>0.00866756015193791</v>
       </c>
       <c r="D3" t="n">
-        <v>0.567405831758096</v>
+        <v>0.568201993378144</v>
       </c>
       <c r="E3" t="n">
-        <v>0.583630810576058</v>
+        <v>0.583111944366641</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.0043894267362697</v>
+        <v>-0.00435905451875667</v>
       </c>
       <c r="G3" t="n">
-        <v>0.010187198104118</v>
+        <v>0.0102128280080639</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.430876742692907</v>
+        <v>-0.426821495017325</v>
       </c>
       <c r="I3" t="n">
-        <v>0.676191346200702</v>
+        <v>0.679041320252451</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.010551384717366</v>
+        <v>-0.0105634696167841</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0159207502564994</v>
+        <v>0.0159504067338074</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.66274418902203</v>
+        <v>-0.662269608109395</v>
       </c>
       <c r="M3" t="n">
-        <v>0.523273516290506</v>
+        <v>0.523564991929735</v>
       </c>
       <c r="N3" t="n">
         <v>-0.0263184585562074</v>
@@ -828,40 +831,40 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.0000178319312098181</v>
+        <v>-0.0000176092861192245</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0000654480844106313</v>
+        <v>0.0000658584224618496</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.272459176924688</v>
+        <v>-0.267380928072263</v>
       </c>
       <c r="E4" t="n">
-        <v>0.797124308251696</v>
+        <v>0.800803893972112</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.00000376935156913765</v>
+        <v>-0.00000355109157855381</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0000583992198403497</v>
+        <v>0.0000587594463373049</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.0645445534964714</v>
+        <v>-0.0604343948063941</v>
       </c>
       <c r="I4" t="n">
-        <v>0.951251170330098</v>
+        <v>0.954352002834099</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0000334989693054998</v>
+        <v>0.0000334069301375338</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0000947625125223309</v>
+        <v>0.0000953642015816994</v>
       </c>
       <c r="L4" t="n">
-        <v>0.353504444044851</v>
+        <v>0.350308916589773</v>
       </c>
       <c r="M4" t="n">
-        <v>0.739365786428805</v>
+        <v>0.741616767631274</v>
       </c>
       <c r="N4" t="n">
         <v>0.000248364499279352</v>
@@ -897,40 +900,40 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0494989122269314</v>
+        <v>0.0495600642539992</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0141660138967193</v>
+        <v>0.0141996857478295</v>
       </c>
       <c r="D5" t="n">
-        <v>3.49420186848715</v>
+        <v>3.49022261014296</v>
       </c>
       <c r="E5" t="n">
-        <v>0.00549428386367275</v>
+        <v>0.00553312793576466</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0427561801010299</v>
+        <v>0.0428230059363088</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0139298150099563</v>
+        <v>0.0139568399077706</v>
       </c>
       <c r="H5" t="n">
-        <v>3.06940042423176</v>
+        <v>3.06824511990474</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0114590480343481</v>
+        <v>0.0114841743766033</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0373814283256376</v>
+        <v>0.037355775026454</v>
       </c>
       <c r="K5" t="n">
-        <v>0.014661702107419</v>
+        <v>0.0147304686118542</v>
       </c>
       <c r="L5" t="n">
-        <v>2.54959676930839</v>
+        <v>2.53595292931769</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0282800737813731</v>
+        <v>0.0289614193066642</v>
       </c>
       <c r="N5" t="n">
         <v>0.0521844137401422</v>
@@ -966,40 +969,40 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0652086119412324</v>
+        <v>0.0652060111917081</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0190288975980051</v>
+        <v>0.0190236132459365</v>
       </c>
       <c r="D6" t="n">
-        <v>3.42682026667002</v>
+        <v>3.42763545225228</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00622933035946623</v>
+        <v>0.00622062617873829</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0601021999767503</v>
+        <v>0.0600988910461625</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0204742904539055</v>
+        <v>0.0204710365559046</v>
       </c>
       <c r="H6" t="n">
-        <v>2.93549610972163</v>
+        <v>2.9358010710419</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0145041122584617</v>
+        <v>0.0144963179365306</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0479313121937115</v>
+        <v>0.0479327326040529</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0222465743351823</v>
+        <v>0.0222483005451386</v>
       </c>
       <c r="L6" t="n">
-        <v>2.15454799788701</v>
+        <v>2.15444467350683</v>
       </c>
       <c r="M6" t="n">
-        <v>0.055893786616221</v>
+        <v>0.0559033253883952</v>
       </c>
       <c r="N6" t="n">
         <v>0.0584094733587877</v>
@@ -1035,40 +1038,40 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0504965475781963</v>
+        <v>0.0504652043607625</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0179116901167191</v>
+        <v>0.0178915347598852</v>
       </c>
       <c r="D7" t="n">
-        <v>2.81919502007586</v>
+        <v>2.82061908260163</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0171187836399844</v>
+        <v>0.0170753766448665</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0420956661597317</v>
+        <v>0.042063482633124</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0193937846650063</v>
+        <v>0.0193728108221627</v>
       </c>
       <c r="H7" t="n">
-        <v>2.17057510366649</v>
+        <v>2.17126378919691</v>
       </c>
       <c r="I7" t="n">
-        <v>0.053463244381599</v>
+        <v>0.0533989565745754</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0334958211989316</v>
+        <v>0.0335074847518136</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0189670977227327</v>
+        <v>0.0189375392489657</v>
       </c>
       <c r="L7" t="n">
-        <v>1.76599613122601</v>
+        <v>1.76936846499968</v>
       </c>
       <c r="M7" t="n">
-        <v>0.105942469736142</v>
+        <v>0.105354045787202</v>
       </c>
       <c r="N7" t="n">
         <v>0.0387766588130092</v>
@@ -1104,40 +1107,40 @@
         <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0210347446215862</v>
+        <v>0.0209726030818723</v>
       </c>
       <c r="C8" t="n">
-        <v>0.025443608079418</v>
+        <v>0.0255033807024075</v>
       </c>
       <c r="D8" t="n">
-        <v>0.82672019455455</v>
+        <v>0.822345999010733</v>
       </c>
       <c r="E8" t="n">
-        <v>0.429540934557008</v>
+        <v>0.431901064002031</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0233078452105158</v>
+        <v>0.0232438339341275</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0282271445663684</v>
+        <v>0.0282551158636932</v>
       </c>
       <c r="H8" t="n">
-        <v>0.825724513356773</v>
+        <v>0.822641607497176</v>
       </c>
       <c r="I8" t="n">
-        <v>0.430076506432793</v>
+        <v>0.431740402085421</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0150705541974283</v>
+        <v>0.0150951393775572</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0282464083344612</v>
+        <v>0.0282632687856406</v>
       </c>
       <c r="L8" t="n">
-        <v>0.533538778416719</v>
+        <v>0.534090359188261</v>
       </c>
       <c r="M8" t="n">
-        <v>0.606437679705187</v>
+        <v>0.606071180448502</v>
       </c>
       <c r="N8" t="n">
         <v>0.0259228006012964</v>
@@ -1173,40 +1176,40 @@
         <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0559628932679777</v>
+        <v>0.0559336995867482</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0357200723121321</v>
+        <v>0.0357500847880698</v>
       </c>
       <c r="D9" t="n">
-        <v>1.56670716618259</v>
+        <v>1.56457529872527</v>
       </c>
       <c r="E9" t="n">
-        <v>0.149400080313641</v>
+        <v>0.149896420719173</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0589427428347978</v>
+        <v>0.058911225192215</v>
       </c>
       <c r="G9" t="n">
-        <v>0.038488525448546</v>
+        <v>0.0385080368202283</v>
       </c>
       <c r="H9" t="n">
-        <v>1.5314367632399</v>
+        <v>1.52984234089204</v>
       </c>
       <c r="I9" t="n">
-        <v>0.157803685123463</v>
+        <v>0.158192995734064</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0471120833775165</v>
+        <v>0.0471240067397403</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0373398817635322</v>
+        <v>0.0373481990533404</v>
       </c>
       <c r="L9" t="n">
-        <v>1.26170949538272</v>
+        <v>1.26174776653723</v>
       </c>
       <c r="M9" t="n">
-        <v>0.236725595636023</v>
+        <v>0.236712008685613</v>
       </c>
       <c r="N9" t="n">
         <v>0.0735877782524987</v>
@@ -1242,40 +1245,40 @@
         <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0992754978439596</v>
+        <v>0.099225324833521</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0373210236379488</v>
+        <v>0.0373641603273778</v>
       </c>
       <c r="D10" t="n">
-        <v>2.66004220053102</v>
+        <v>2.6556283873136</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0247071212582635</v>
+        <v>0.0248921630696313</v>
       </c>
       <c r="F10" t="n">
-        <v>0.102364268618465</v>
+        <v>0.102308042158671</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0393677894740767</v>
+        <v>0.0393983109275239</v>
       </c>
       <c r="H10" t="n">
-        <v>2.60020361788083</v>
+        <v>2.59676213903876</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0273348478607991</v>
+        <v>0.0274943893366082</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0875024954788475</v>
+        <v>0.0875237047518805</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0367613476707479</v>
+        <v>0.0367587345391149</v>
       </c>
       <c r="L10" t="n">
-        <v>2.3802853002714</v>
+        <v>2.38103149766341</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0395643445898355</v>
+        <v>0.0395151050900701</v>
       </c>
       <c r="N10" t="n">
         <v>0.116805064731458</v>
@@ -1311,40 +1314,40 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0429878262955046</v>
+        <v>0.0427981228158408</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0822775414408075</v>
+        <v>0.0824908482889542</v>
       </c>
       <c r="D11" t="n">
-        <v>0.522473393622621</v>
+        <v>0.518822677952405</v>
       </c>
       <c r="E11" t="n">
-        <v>0.614808523982362</v>
+        <v>0.617244881977728</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0411688729965107</v>
+        <v>0.0409565909106319</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0945344330086895</v>
+        <v>0.0946389041797252</v>
       </c>
       <c r="H11" t="n">
-        <v>0.435490769725424</v>
+        <v>0.432766960539323</v>
       </c>
       <c r="I11" t="n">
-        <v>0.674164726222424</v>
+        <v>0.676066106319307</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0151628630462591</v>
+        <v>0.015241133844147</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0881624209386873</v>
+        <v>0.088229788288395</v>
       </c>
       <c r="L11" t="n">
-        <v>0.171987825252714</v>
+        <v>0.172743629332178</v>
       </c>
       <c r="M11" t="n">
-        <v>0.867514224248666</v>
+        <v>0.866938651416302</v>
       </c>
       <c r="N11" t="n">
         <v>0.0408383391228827</v>
@@ -1380,40 +1383,40 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0595304042258935</v>
+        <v>0.0595513986264919</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0277849324170903</v>
+        <v>0.0278258348332902</v>
       </c>
       <c r="D12" t="n">
-        <v>2.1425427038029</v>
+        <v>2.14014777933081</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0528127659320512</v>
+        <v>0.053037398874815</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0496579746904657</v>
+        <v>0.0496848557367073</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0312465511416907</v>
+        <v>0.0312904722483253</v>
       </c>
       <c r="H12" t="n">
-        <v>1.58923058309016</v>
+        <v>1.58785892850711</v>
       </c>
       <c r="I12" t="n">
-        <v>0.137096441923066</v>
+        <v>0.137402660104285</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0166355719360465</v>
+        <v>0.0166286422864564</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0266151049946619</v>
+        <v>0.0266378754608891</v>
       </c>
       <c r="L12" t="n">
-        <v>0.625042506478296</v>
+        <v>0.624248067788715</v>
       </c>
       <c r="M12" t="n">
-        <v>0.543083966033488</v>
+        <v>0.543587810684331</v>
       </c>
       <c r="N12" t="n">
         <v>-0.0299509838138458</v>
@@ -1441,40 +1444,40 @@
         <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0623282810158911</v>
+        <v>0.0623458465926382</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0290948450942894</v>
+        <v>0.0290515342671522</v>
       </c>
       <c r="D13" t="n">
-        <v>2.14224481394901</v>
+        <v>2.14604316657833</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0512046125647175</v>
+        <v>0.0508453106607046</v>
       </c>
       <c r="F13" t="n">
-        <v>0.069220368740824</v>
+        <v>0.0692385945378709</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0361652279004546</v>
+        <v>0.0361211269486155</v>
       </c>
       <c r="H13" t="n">
-        <v>1.91400338831969</v>
+        <v>1.91684480488018</v>
       </c>
       <c r="I13" t="n">
-        <v>0.077414064889024</v>
+        <v>0.0770205617112593</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0888320054873842</v>
+        <v>0.0888213965087994</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0413355732230061</v>
+        <v>0.041304253801455</v>
       </c>
       <c r="L13" t="n">
-        <v>2.14904496444586</v>
+        <v>2.15041765276172</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0505013770143856</v>
+        <v>0.050369550804739</v>
       </c>
       <c r="N13" t="n">
         <v>0.110734610799198</v>
@@ -1502,40 +1505,40 @@
         <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0259192173717107</v>
+        <v>0.0259556261507039</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0250594911987168</v>
+        <v>0.0250313042605622</v>
       </c>
       <c r="D14" t="n">
-        <v>1.03430740736819</v>
+        <v>1.03692663716281</v>
       </c>
       <c r="E14" t="n">
-        <v>0.321618880630724</v>
+        <v>0.32044061443916</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0220948218940684</v>
+        <v>0.0221327413385135</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0273801133971558</v>
+        <v>0.0273565592451006</v>
       </c>
       <c r="H14" t="n">
-        <v>0.806966047714162</v>
+        <v>0.809046968963297</v>
       </c>
       <c r="I14" t="n">
-        <v>0.435646412188916</v>
+        <v>0.434490591413763</v>
       </c>
       <c r="J14" t="n">
-        <v>0.00811497045768918</v>
+        <v>0.0080997915254428</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0336050632666576</v>
+        <v>0.0335868310302763</v>
       </c>
       <c r="L14" t="n">
-        <v>0.241480588603466</v>
+        <v>0.241159742583079</v>
       </c>
       <c r="M14" t="n">
-        <v>0.813362935782642</v>
+        <v>0.813604479168866</v>
       </c>
       <c r="N14" t="n">
         <v>-0.000768789869551024</v>
@@ -1563,40 +1566,40 @@
         <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.0301832356679567</v>
+        <v>-0.030030148124265</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0224861986929192</v>
+        <v>0.0223180384282185</v>
       </c>
       <c r="D15" t="n">
-        <v>-1.34230049641345</v>
+        <v>-1.34555499672836</v>
       </c>
       <c r="E15" t="n">
-        <v>0.209687379275106</v>
+        <v>0.208612741599994</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.0304292393078155</v>
+        <v>-0.0302619236105895</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0226127827366515</v>
+        <v>0.022521220992032</v>
       </c>
       <c r="H15" t="n">
-        <v>-1.34566539917685</v>
+        <v>-1.34370705839156</v>
       </c>
       <c r="I15" t="n">
-        <v>0.208647011194785</v>
+        <v>0.20919448168234</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.0336500155744014</v>
+        <v>-0.0337132060654011</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0271334740221867</v>
+        <v>0.0267711848788376</v>
       </c>
       <c r="L15" t="n">
-        <v>-1.24016613379054</v>
+        <v>-1.25930944849778</v>
       </c>
       <c r="M15" t="n">
-        <v>0.243814132328846</v>
+        <v>0.237052298900588</v>
       </c>
       <c r="N15" t="n">
         <v>-0.097263765619124</v>
@@ -1624,40 +1627,40 @@
         <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.00422434951449538</v>
+        <v>-0.0042684630028829</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0125413823303298</v>
+        <v>0.0124776564017808</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.336832846908695</v>
+        <v>-0.342088519305093</v>
       </c>
       <c r="E16" t="n">
-        <v>0.743468323034217</v>
+        <v>0.739632312814095</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.0060400662563249</v>
+        <v>-0.00608789769881153</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0125587949845708</v>
+        <v>0.012537164614038</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.480943136960628</v>
+        <v>-0.48558808041771</v>
       </c>
       <c r="I16" t="n">
-        <v>0.641248551333453</v>
+        <v>0.638068899460925</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0027758354264313</v>
+        <v>0.00279266789307536</v>
       </c>
       <c r="K16" t="n">
-        <v>0.00797061567848031</v>
+        <v>0.00797114493739036</v>
       </c>
       <c r="L16" t="n">
-        <v>0.348258596123975</v>
+        <v>0.350347147744831</v>
       </c>
       <c r="M16" t="n">
-        <v>0.735062974737632</v>
+        <v>0.7335437030552</v>
       </c>
       <c r="N16" t="n">
         <v>0.0780219120442024</v>
@@ -1685,40 +1688,40 @@
         <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>0.000522574025515302</v>
+        <v>0.000522597700054888</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0000638340566715306</v>
+        <v>0.000063890828749954</v>
       </c>
       <c r="D17" t="n">
-        <v>8.18644549263568</v>
+        <v>8.17954173204029</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0000254233663621294</v>
+        <v>0.000025667387877493</v>
       </c>
       <c r="F17" t="n">
-        <v>0.000568870028763392</v>
+        <v>0.000568889440512567</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0000702628160933098</v>
+        <v>0.0000703147341432564</v>
       </c>
       <c r="H17" t="n">
-        <v>8.0963169481839</v>
+        <v>8.0906149677468</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0000344745877639234</v>
+        <v>0.0000347455549334794</v>
       </c>
       <c r="J17" t="n">
-        <v>0.000650394935044612</v>
+        <v>0.000650382486224201</v>
       </c>
       <c r="K17" t="n">
-        <v>0.000061716655860971</v>
+        <v>0.0000617962610054059</v>
       </c>
       <c r="L17" t="n">
-        <v>10.5384020888908</v>
+        <v>10.5246252061643</v>
       </c>
       <c r="M17" t="n">
-        <v>0.00000309257900792579</v>
+        <v>0.00000314540351952236</v>
       </c>
       <c r="N17" t="n">
         <v>0.000713259839212059</v>
@@ -1746,40 +1749,40 @@
         <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.0231313500961643</v>
+        <v>-0.0231333056423697</v>
       </c>
       <c r="C18" t="n">
-        <v>0.00713459628451537</v>
+        <v>0.00713824783700115</v>
       </c>
       <c r="D18" t="n">
-        <v>-3.24213861215492</v>
+        <v>-3.24075405766357</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0137010731514611</v>
+        <v>0.0137220086808599</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.0240102206158703</v>
+        <v>-0.0240137062560187</v>
       </c>
       <c r="G18" t="n">
-        <v>0.00617131902746855</v>
+        <v>0.00617821468318528</v>
       </c>
       <c r="H18" t="n">
-        <v>-3.89061406629616</v>
+        <v>-3.88683583970864</v>
       </c>
       <c r="I18" t="n">
-        <v>0.00599024549785033</v>
+        <v>0.00601223570267744</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.0217548475588304</v>
+        <v>-0.0217531447827515</v>
       </c>
       <c r="K18" t="n">
-        <v>0.00746910807246494</v>
+        <v>0.00747419287437536</v>
       </c>
       <c r="L18" t="n">
-        <v>-2.91264329659792</v>
+        <v>-2.91043396235202</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0223244088204553</v>
+        <v>0.0223725350426162</v>
       </c>
       <c r="N18" t="n">
         <v>-0.0253005938512693</v>
@@ -1807,40 +1810,40 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>0.231324605056137</v>
+        <v>0.23133537832102</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0952765685539772</v>
+        <v>0.0952933495030326</v>
       </c>
       <c r="D19" t="n">
-        <v>2.42792754364452</v>
+        <v>2.42761304464021</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0454362787504793</v>
+        <v>0.0454531791499093</v>
       </c>
       <c r="F19" t="n">
-        <v>0.251137549780416</v>
+        <v>0.25116377467811</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0900283162053205</v>
+        <v>0.0900765762195862</v>
       </c>
       <c r="H19" t="n">
-        <v>2.78953956228245</v>
+        <v>2.78833616040012</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0273999070110355</v>
+        <v>0.0274374318429493</v>
       </c>
       <c r="J19" t="n">
-        <v>0.254500261978912</v>
+        <v>0.254483789333453</v>
       </c>
       <c r="K19" t="n">
-        <v>0.104951828363274</v>
+        <v>0.104973805223046</v>
       </c>
       <c r="L19" t="n">
-        <v>2.42492451963772</v>
+        <v>2.42425992649053</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0460303912489017</v>
+        <v>0.0460521471791078</v>
       </c>
       <c r="N19" t="n">
         <v>0.280505046065097</v>
@@ -1868,40 +1871,40 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.00165859794341675</v>
+        <v>-0.00101664127948907</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1129468071727</v>
+        <v>0.113938568333004</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.0146847705121995</v>
+        <v>-0.00892271418153829</v>
       </c>
       <c r="E20" t="n">
-        <v>0.988744315921311</v>
+        <v>0.993160279295552</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.0216120667168143</v>
+        <v>-0.0209300101838626</v>
       </c>
       <c r="G20" t="n">
-        <v>0.128846187830938</v>
+        <v>0.129618382336569</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.167735398932966</v>
+        <v>-0.161474088833444</v>
       </c>
       <c r="I20" t="n">
-        <v>0.872123039148154</v>
+        <v>0.876840506587711</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0296083739919941</v>
+        <v>0.0293539600318962</v>
       </c>
       <c r="K20" t="n">
-        <v>0.1103432604692</v>
+        <v>0.111644558802207</v>
       </c>
       <c r="L20" t="n">
-        <v>0.268329700120276</v>
+        <v>0.262923337660373</v>
       </c>
       <c r="M20" t="n">
-        <v>0.797143675385887</v>
+        <v>0.801110270742313</v>
       </c>
       <c r="N20" t="n">
         <v>-0.0316191665713661</v>
@@ -1929,40 +1932,40 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0980874257029265</v>
+        <v>0.0980429156481247</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0133160572139542</v>
+        <v>0.0132411059635348</v>
       </c>
       <c r="D21" t="n">
-        <v>7.36610125106238</v>
+        <v>7.40443554474444</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0000162276260712057</v>
+        <v>0.0000154620907931134</v>
       </c>
       <c r="F21" t="n">
-        <v>0.101512938748684</v>
+        <v>0.10146917128956</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0165851459817374</v>
+        <v>0.0165584628794245</v>
       </c>
       <c r="H21" t="n">
-        <v>6.12071421381902</v>
+        <v>6.1279342188003</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0000848539570341793</v>
+        <v>0.0000839464498061237</v>
       </c>
       <c r="J21" t="n">
-        <v>0.12904978605056</v>
+        <v>0.129064430545463</v>
       </c>
       <c r="K21" t="n">
-        <v>0.018224152458192</v>
+        <v>0.0182083629334559</v>
       </c>
       <c r="L21" t="n">
-        <v>7.08125035425449</v>
+        <v>7.08819518905352</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0000229319315038687</v>
+        <v>0.0000227102882677882</v>
       </c>
       <c r="N21" t="n">
         <v>0.152421160009432</v>
@@ -1990,40 +1993,40 @@
         <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0538056008853284</v>
+        <v>0.0537900360008114</v>
       </c>
       <c r="C22" t="n">
-        <v>0.00525880130085165</v>
+        <v>0.00525332213975686</v>
       </c>
       <c r="D22" t="n">
-        <v>10.231533348981</v>
+        <v>10.2392418682516</v>
       </c>
       <c r="E22" t="n">
-        <v>0.000000483929857797259</v>
+        <v>0.000000479934629775826</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0548095788343666</v>
+        <v>0.0547960985119815</v>
       </c>
       <c r="G22" t="n">
-        <v>0.00746649335749162</v>
+        <v>0.00747244338457384</v>
       </c>
       <c r="H22" t="n">
-        <v>7.34073898014958</v>
+        <v>7.33308981973727</v>
       </c>
       <c r="I22" t="n">
-        <v>0.000012938408178098</v>
+        <v>0.0000130622259534122</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0665285708448103</v>
+        <v>0.0665331048299765</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0115701899270789</v>
+        <v>0.0115709661447996</v>
       </c>
       <c r="L22" t="n">
-        <v>5.74999816460288</v>
+        <v>5.7500042777222</v>
       </c>
       <c r="M22" t="n">
-        <v>0.000117393891460799</v>
+        <v>0.000117368691629638</v>
       </c>
       <c r="N22" t="n">
         <v>0.0721122288167511</v>
@@ -2051,40 +2054,40 @@
         <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.0729104417978596</v>
+        <v>-0.0728943371972015</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0128493211875911</v>
+        <v>0.0128791686006799</v>
       </c>
       <c r="D23" t="n">
-        <v>-5.67426409017398</v>
+        <v>-5.65986357173347</v>
       </c>
       <c r="E23" t="n">
-        <v>0.000129846672623335</v>
+        <v>0.000132723119446039</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.0804964294346165</v>
+        <v>-0.0804773472352689</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0127764513514813</v>
+        <v>0.0127896469204374</v>
       </c>
       <c r="H23" t="n">
-        <v>-6.30037458916819</v>
+        <v>-6.29238224760287</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0000520025698726543</v>
+        <v>0.0000526064532815564</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.0881059609639852</v>
+        <v>-0.0881130609163252</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0180869022718132</v>
+        <v>0.0180684868615035</v>
       </c>
       <c r="L23" t="n">
-        <v>-4.87125764489204</v>
+        <v>-4.87661537967839</v>
       </c>
       <c r="M23" t="n">
-        <v>0.000457887849689647</v>
+        <v>0.000453973624907628</v>
       </c>
       <c r="N23" t="n">
         <v>-0.0729422619331664</v>
@@ -2112,40 +2115,40 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.026135307533258</v>
+        <v>-0.0261124693670508</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0215438511740113</v>
+        <v>0.0215133697039546</v>
       </c>
       <c r="D24" t="n">
-        <v>-1.21312142950492</v>
+        <v>-1.2137786746746</v>
       </c>
       <c r="E24" t="n">
-        <v>0.25205725773583</v>
+        <v>0.251819473800827</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.0257067465220495</v>
+        <v>-0.025677504487472</v>
       </c>
       <c r="G24" t="n">
-        <v>0.021288972841265</v>
+        <v>0.0212563266642943</v>
       </c>
       <c r="H24" t="n">
-        <v>-1.20751464684202</v>
+        <v>-1.20799350202894</v>
       </c>
       <c r="I24" t="n">
-        <v>0.254163317373899</v>
+        <v>0.253990016586382</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.00064036769302446</v>
+        <v>-0.000651257703254947</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0273297617179028</v>
+        <v>0.0273224615104624</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.0234311480515023</v>
+        <v>-0.0238359820913487</v>
       </c>
       <c r="M24" t="n">
-        <v>0.981751483771526</v>
+        <v>0.981436303758852</v>
       </c>
       <c r="N24"/>
       <c r="O24"/>
@@ -2165,40 +2168,40 @@
         <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0287086652141123</v>
+        <v>0.0284228939353878</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0634025350661076</v>
+        <v>0.063477631969473</v>
       </c>
       <c r="D25" t="n">
-        <v>0.452799957985572</v>
+        <v>0.447762354289724</v>
       </c>
       <c r="E25" t="n">
-        <v>0.666249520837456</v>
+        <v>0.669671080796636</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0176045920068512</v>
+        <v>0.0173048734647151</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0660198541016128</v>
+        <v>0.0661222181389142</v>
       </c>
       <c r="H25" t="n">
-        <v>0.266656027136255</v>
+        <v>0.261710419761778</v>
       </c>
       <c r="I25" t="n">
-        <v>0.798485840688565</v>
+        <v>0.802116427331141</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0385093666784677</v>
+        <v>0.03862052006024</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0862380562696109</v>
+        <v>0.086284529774675</v>
       </c>
       <c r="L25" t="n">
-        <v>0.446547247749575</v>
+        <v>0.447594953128844</v>
       </c>
       <c r="M25" t="n">
-        <v>0.670652931223941</v>
+        <v>0.669921854937182</v>
       </c>
       <c r="N25"/>
       <c r="O25"/>
@@ -2218,40 +2221,40 @@
         <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.0379514685230891</v>
+        <v>-0.0384342700876635</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0118751643847356</v>
+        <v>0.0123894419430775</v>
       </c>
       <c r="D26" t="n">
-        <v>-3.19586889861264</v>
+        <v>-3.10217928008762</v>
       </c>
       <c r="E26" t="n">
-        <v>0.00801906969944002</v>
+        <v>0.00957467240130202</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.0332695663480376</v>
+        <v>-0.0337971740825341</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0113555114763163</v>
+        <v>0.0119219752324431</v>
       </c>
       <c r="H26" t="n">
-        <v>-2.92981662846509</v>
+        <v>-2.83486363824699</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0130177609500351</v>
+        <v>0.0155710304829152</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.0179959686980509</v>
+        <v>-0.0177964381343151</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0137280667548486</v>
+        <v>0.0134582301194346</v>
       </c>
       <c r="L26" t="n">
-        <v>-1.31088878131329</v>
+        <v>-1.32234610170738</v>
       </c>
       <c r="M26" t="n">
-        <v>0.215349174316424</v>
+        <v>0.211797281059205</v>
       </c>
       <c r="N26"/>
       <c r="O26"/>
@@ -2271,40 +2274,40 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0579107268388845</v>
+        <v>0.0573423405992949</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0235773282665979</v>
+        <v>0.0224409741979295</v>
       </c>
       <c r="D27" t="n">
-        <v>2.45620395084913</v>
+        <v>2.55525183949392</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0413382512353613</v>
+        <v>0.0358687183217003</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0793334244416404</v>
+        <v>0.0787187414595602</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0259620913732511</v>
+        <v>0.0247399998897714</v>
       </c>
       <c r="H27" t="n">
-        <v>3.05574089933981</v>
+        <v>3.18184081690744</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0167726216022712</v>
+        <v>0.0141275782261689</v>
       </c>
       <c r="J27" t="n">
-        <v>0.0751926085721647</v>
+        <v>0.0754218224956031</v>
       </c>
       <c r="K27" t="n">
-        <v>0.029375744280311</v>
+        <v>0.0279088203204193</v>
       </c>
       <c r="L27" t="n">
-        <v>2.55968352170612</v>
+        <v>2.70243677911464</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0348480533371373</v>
+        <v>0.0282992641821888</v>
       </c>
       <c r="N27"/>
       <c r="O27"/>
@@ -2324,40 +2327,40 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0125761240280977</v>
+        <v>0.0117227758806013</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0247257785726599</v>
+        <v>0.0261222823513066</v>
       </c>
       <c r="D28" t="n">
-        <v>0.508623984928972</v>
+        <v>0.448765376736499</v>
       </c>
       <c r="E28" t="n">
-        <v>0.619983220173639</v>
+        <v>0.661366066000037</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0174346310454179</v>
+        <v>0.0165351186422675</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0273065531494138</v>
+        <v>0.0290909701277898</v>
       </c>
       <c r="H28" t="n">
-        <v>0.638477912244015</v>
+        <v>0.568393510757208</v>
       </c>
       <c r="I28" t="n">
-        <v>0.534853584767343</v>
+        <v>0.579972483929764</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.0100088361191849</v>
+        <v>-0.00967045298389098</v>
       </c>
       <c r="K28" t="n">
-        <v>0.036360672529805</v>
+        <v>0.0382699290010466</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.27526542890483</v>
+        <v>-0.252690643445577</v>
       </c>
       <c r="M28" t="n">
-        <v>0.787597551734522</v>
+        <v>0.804603507824779</v>
       </c>
       <c r="N28"/>
       <c r="O28"/>
@@ -2377,40 +2380,40 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0160046319742986</v>
+        <v>0.0158416008711869</v>
       </c>
       <c r="C29" t="n">
-        <v>0.105278383001365</v>
+        <v>0.10494871989054</v>
       </c>
       <c r="D29" t="n">
-        <v>0.152022015517574</v>
+        <v>0.150946108611039</v>
       </c>
       <c r="E29" t="n">
-        <v>0.896281701029049</v>
+        <v>0.897002950966261</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0330933635161401</v>
+        <v>0.0329272755128065</v>
       </c>
       <c r="G29" t="n">
-        <v>0.12734058178035</v>
+        <v>0.127218140076502</v>
       </c>
       <c r="H29" t="n">
-        <v>0.259880731291325</v>
+        <v>0.258825317623775</v>
       </c>
       <c r="I29" t="n">
-        <v>0.825097388276939</v>
+        <v>0.825772286101908</v>
       </c>
       <c r="J29" t="n">
-        <v>0.041187503238457</v>
+        <v>0.0412476556897676</v>
       </c>
       <c r="K29" t="n">
-        <v>0.123359016501043</v>
+        <v>0.123214193089566</v>
       </c>
       <c r="L29" t="n">
-        <v>0.333883200488297</v>
+        <v>0.334763834064019</v>
       </c>
       <c r="M29" t="n">
-        <v>0.777968918903992</v>
+        <v>0.777403878828983</v>
       </c>
       <c r="N29"/>
       <c r="O29"/>
@@ -2430,40 +2433,40 @@
         <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>0.00468831543065109</v>
+        <v>0.00456695503994196</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0126174784819342</v>
+        <v>0.0123973797971739</v>
       </c>
       <c r="D30" t="n">
-        <v>0.371573087076301</v>
+        <v>0.368380667097335</v>
       </c>
       <c r="E30" t="n">
-        <v>0.716398058795423</v>
+        <v>0.718718908536942</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.00409142294773411</v>
+        <v>-0.00422184954162501</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0137285328396708</v>
+        <v>0.0134780885447893</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.298023320883298</v>
+        <v>-0.313238003118565</v>
       </c>
       <c r="I30" t="n">
-        <v>0.770545638439746</v>
+        <v>0.759228033548038</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.0286022130225603</v>
+        <v>-0.0285543443781857</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0258430196386794</v>
+        <v>0.0257062219264761</v>
       </c>
       <c r="L30" t="n">
-        <v>-1.10676745297021</v>
+        <v>-1.11079506198366</v>
       </c>
       <c r="M30" t="n">
-        <v>0.288985049810103</v>
+        <v>0.287314895055037</v>
       </c>
       <c r="N30"/>
       <c r="O30"/>
@@ -2483,40 +2486,40 @@
         <v>54</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.0902199757770464</v>
+        <v>-0.0216152032135337</v>
       </c>
       <c r="C31" t="n">
-        <v>0.12297732953843</v>
+        <v>0.0821754919543379</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.733630955523823</v>
+        <v>-0.263037101445582</v>
       </c>
       <c r="E31" t="n">
-        <v>0.541030855548551</v>
+        <v>0.802804475979165</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.138782086107763</v>
+        <v>-0.0231303496169369</v>
       </c>
       <c r="G31" t="n">
-        <v>0.12247212856665</v>
+        <v>0.083941252117941</v>
       </c>
       <c r="H31" t="n">
-        <v>-1.13317281027117</v>
+        <v>-0.275554021810846</v>
       </c>
       <c r="I31" t="n">
-        <v>0.377218137938932</v>
+        <v>0.793725946718729</v>
       </c>
       <c r="J31" t="n">
-        <v>0.0195382156769833</v>
+        <v>0.00866804684375591</v>
       </c>
       <c r="K31" t="n">
-        <v>0.0664162970933815</v>
+        <v>0.0847156262129224</v>
       </c>
       <c r="L31" t="n">
-        <v>0.29417803358583</v>
+        <v>0.102319338606668</v>
       </c>
       <c r="M31" t="n">
-        <v>0.797312694175497</v>
+        <v>0.922413478126644</v>
       </c>
       <c r="N31"/>
       <c r="O31"/>
@@ -2536,40 +2539,40 @@
         <v>55</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0543660439798146</v>
+        <v>-0.0905503356634207</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0509785233041575</v>
+        <v>0.123517528196999</v>
       </c>
       <c r="D32" t="n">
-        <v>1.06644995688568</v>
+        <v>-0.733097050962691</v>
       </c>
       <c r="E32" t="n">
-        <v>0.309005823208099</v>
+        <v>0.541288720837899</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0716273582082121</v>
+        <v>-0.139100501857102</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0557620344447436</v>
+        <v>0.123090932648274</v>
       </c>
       <c r="H32" t="n">
-        <v>1.28451838103558</v>
+        <v>-1.13006294504709</v>
       </c>
       <c r="I32" t="n">
-        <v>0.225412603628702</v>
+        <v>0.378254369932113</v>
       </c>
       <c r="J32" t="n">
-        <v>0.0978739143343951</v>
+        <v>0.0196219369878128</v>
       </c>
       <c r="K32" t="n">
-        <v>0.0669450231542462</v>
+        <v>0.0659568746349389</v>
       </c>
       <c r="L32" t="n">
-        <v>1.46200433912595</v>
+        <v>0.297496464112606</v>
       </c>
       <c r="M32" t="n">
-        <v>0.174236827879825</v>
+        <v>0.795123814576812</v>
       </c>
       <c r="N32"/>
       <c r="O32"/>
@@ -2589,40 +2592,40 @@
         <v>56</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0316349134588986</v>
+        <v>0.0540354414652952</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0258662805930947</v>
+        <v>0.0511993031908533</v>
       </c>
       <c r="D33" t="n">
-        <v>1.22301748583613</v>
+        <v>1.05539407956139</v>
       </c>
       <c r="E33" t="n">
-        <v>0.255039895790555</v>
+        <v>0.313798963376211</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0451725489121475</v>
+        <v>0.0712579457938241</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0321989604121747</v>
+        <v>0.0560357351542455</v>
       </c>
       <c r="H33" t="n">
-        <v>1.40291948354542</v>
+        <v>1.27165184141294</v>
       </c>
       <c r="I33" t="n">
-        <v>0.196637855285012</v>
+        <v>0.229766659819902</v>
       </c>
       <c r="J33" t="n">
-        <v>0.038708814234656</v>
+        <v>0.0980078717754602</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0457699706841987</v>
+        <v>0.0672245742750571</v>
       </c>
       <c r="L33" t="n">
-        <v>0.845725126234779</v>
+        <v>1.45791732907746</v>
       </c>
       <c r="M33" t="n">
-        <v>0.423268877353554</v>
+        <v>0.175312104087091</v>
       </c>
       <c r="N33"/>
       <c r="O33"/>
@@ -2642,40 +2645,40 @@
         <v>57</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0230543507820794</v>
+        <v>0.0314699779953451</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0553158620441676</v>
+        <v>0.0261177206135073</v>
       </c>
       <c r="D34" t="n">
-        <v>0.416776489240488</v>
+        <v>1.20492819649314</v>
       </c>
       <c r="E34" t="n">
-        <v>0.683827177953377</v>
+        <v>0.261778840507222</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0330311304186397</v>
+        <v>0.0450090516076592</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0563705352191285</v>
+        <v>0.0324155733786435</v>
       </c>
       <c r="H34" t="n">
-        <v>0.585964463353739</v>
+        <v>1.38850086290044</v>
       </c>
       <c r="I34" t="n">
-        <v>0.56817062692612</v>
+        <v>0.201022909624341</v>
       </c>
       <c r="J34" t="n">
-        <v>0.0223670641826514</v>
+        <v>0.0387630901409593</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0495021041310159</v>
+        <v>0.0458782713723293</v>
       </c>
       <c r="L34" t="n">
-        <v>0.451840675771138</v>
+        <v>0.844911741036926</v>
       </c>
       <c r="M34" t="n">
-        <v>0.66049683833789</v>
+        <v>0.423823539834215</v>
       </c>
       <c r="N34"/>
       <c r="O34"/>
@@ -2695,40 +2698,40 @@
         <v>58</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0655728142307925</v>
+        <v>0.0227474944357048</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0671903185650684</v>
+        <v>0.0553561983470084</v>
       </c>
       <c r="D35" t="n">
-        <v>0.975926526785112</v>
+        <v>0.410929491456563</v>
       </c>
       <c r="E35" t="n">
-        <v>0.351445806154315</v>
+        <v>0.688049354490376</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0600829834406677</v>
+        <v>0.0326947590695744</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0763309953076792</v>
+        <v>0.0564034948771344</v>
       </c>
       <c r="H35" t="n">
-        <v>0.787137429539362</v>
+        <v>0.579658390686507</v>
       </c>
       <c r="I35" t="n">
-        <v>0.449373499967628</v>
+        <v>0.572362009830586</v>
       </c>
       <c r="J35" t="n">
-        <v>0.127321755332084</v>
+        <v>0.0224924952334378</v>
       </c>
       <c r="K35" t="n">
-        <v>0.0816716421396478</v>
+        <v>0.0498519993023386</v>
       </c>
       <c r="L35" t="n">
-        <v>1.55894692449529</v>
+        <v>0.451185419806878</v>
       </c>
       <c r="M35" t="n">
-        <v>0.153274337291482</v>
+        <v>0.661030393252223</v>
       </c>
       <c r="N35"/>
       <c r="O35"/>
@@ -2748,40 +2751,40 @@
         <v>59</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0561927978066174</v>
+        <v>0.0651741546818932</v>
       </c>
       <c r="C36" t="n">
-        <v>0.10516706170461</v>
+        <v>0.0680976895941817</v>
       </c>
       <c r="D36" t="n">
-        <v>0.53431936668964</v>
+        <v>0.957068515397352</v>
       </c>
       <c r="E36" t="n">
-        <v>0.60344041979447</v>
+        <v>0.36040865238257</v>
       </c>
       <c r="F36" t="n">
-        <v>0.138565136630083</v>
+        <v>0.059666986024779</v>
       </c>
       <c r="G36" t="n">
-        <v>0.100100566114146</v>
+        <v>0.0770195013585284</v>
       </c>
       <c r="H36" t="n">
-        <v>1.38425927054273</v>
+        <v>0.774699718543063</v>
       </c>
       <c r="I36" t="n">
-        <v>0.19261477476974</v>
+        <v>0.456337142341845</v>
       </c>
       <c r="J36" t="n">
-        <v>0.227709289646004</v>
+        <v>0.127470304365446</v>
       </c>
       <c r="K36" t="n">
-        <v>0.110152630086205</v>
+        <v>0.0821584137039053</v>
       </c>
       <c r="L36" t="n">
-        <v>2.06721609341329</v>
+        <v>1.55151856783461</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0661266647834767</v>
+        <v>0.154981366027814</v>
       </c>
       <c r="N36"/>
       <c r="O36"/>
@@ -2801,40 +2804,40 @@
         <v>60</v>
       </c>
       <c r="B37" t="n">
-        <v>0.248914783912599</v>
+        <v>0.0558689276635474</v>
       </c>
       <c r="C37" t="n">
-        <v>0.141850481276359</v>
+        <v>0.105814872056663</v>
       </c>
       <c r="D37" t="n">
-        <v>1.75476869498703</v>
+        <v>0.527987480187379</v>
       </c>
       <c r="E37" t="n">
-        <v>0.160851286120979</v>
+        <v>0.607692609984328</v>
       </c>
       <c r="F37" t="n">
-        <v>0.50414656569392</v>
+        <v>0.138181035736572</v>
       </c>
       <c r="G37" t="n">
-        <v>0.13464630921279</v>
+        <v>0.10046103316483</v>
       </c>
       <c r="H37" t="n">
-        <v>3.74422862863019</v>
+        <v>1.37546898915377</v>
       </c>
       <c r="I37" t="n">
-        <v>0.0208656316884616</v>
+        <v>0.195278075705953</v>
       </c>
       <c r="J37" t="n">
-        <v>0.586137169750445</v>
+        <v>0.227840353658499</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0940100804707747</v>
+        <v>0.110371256851753</v>
       </c>
       <c r="L37" t="n">
-        <v>6.23483318826282</v>
+        <v>2.06430877166259</v>
       </c>
       <c r="M37" t="n">
-        <v>0.00475192671227668</v>
+        <v>0.0664855189423056</v>
       </c>
       <c r="N37"/>
       <c r="O37"/>
@@ -2854,40 +2857,40 @@
         <v>61</v>
       </c>
       <c r="B38" t="n">
-        <v>0.263965573263046</v>
+        <v>0.248625288043633</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0203894625424434</v>
+        <v>0.142546394899779</v>
       </c>
       <c r="D38" t="n">
-        <v>12.946176129634</v>
+        <v>1.74417099933278</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00510868568808128</v>
+        <v>0.162554324043783</v>
       </c>
       <c r="F38" t="n">
-        <v>0.219618930332879</v>
+        <v>0.503761419025811</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0443498753742831</v>
+        <v>0.135179862573471</v>
       </c>
       <c r="H38" t="n">
-        <v>4.95196273900305</v>
+        <v>3.72660105902987</v>
       </c>
       <c r="I38" t="n">
-        <v>0.0388158820364052</v>
+        <v>0.0210344148022319</v>
       </c>
       <c r="J38" t="n">
-        <v>0.215510529941252</v>
+        <v>0.586268260417123</v>
       </c>
       <c r="K38" t="n">
-        <v>0.047789811635524</v>
+        <v>0.0943129492796525</v>
       </c>
       <c r="L38" t="n">
-        <v>4.50954968362032</v>
+        <v>6.21620111442753</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0454085722013342</v>
+        <v>0.00474133212918638</v>
       </c>
       <c r="N38"/>
       <c r="O38"/>
@@ -2907,40 +2910,40 @@
         <v>62</v>
       </c>
       <c r="B39" t="n">
-        <v>0.317229019485094</v>
+        <v>0.263961077102333</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0361811594869797</v>
+        <v>0.0203935218264283</v>
       </c>
       <c r="D39" t="n">
-        <v>8.76779583582038</v>
+        <v>12.9433787527695</v>
       </c>
       <c r="E39" t="n">
-        <v>0.00217354694499817</v>
+        <v>0.00511123878741682</v>
       </c>
       <c r="F39" t="n">
-        <v>0.26954567338972</v>
+        <v>0.21962291437445</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0626336932069895</v>
+        <v>0.0443446228674595</v>
       </c>
       <c r="H39" t="n">
-        <v>4.30352514099616</v>
+        <v>4.95263912900724</v>
       </c>
       <c r="I39" t="n">
-        <v>0.0208804820036759</v>
+        <v>0.0388055605589644</v>
       </c>
       <c r="J39" t="n">
-        <v>0.270341539645864</v>
+        <v>0.215510694915741</v>
       </c>
       <c r="K39" t="n">
-        <v>0.0682566210470019</v>
+        <v>0.0478073349858769</v>
       </c>
       <c r="L39" t="n">
-        <v>3.96066396928299</v>
+        <v>4.5079001994026</v>
       </c>
       <c r="M39" t="n">
-        <v>0.0262335924917566</v>
+        <v>0.045440567288301</v>
       </c>
       <c r="N39"/>
       <c r="O39"/>
@@ -2960,40 +2963,40 @@
         <v>63</v>
       </c>
       <c r="B40" t="n">
-        <v>0.368806448022343</v>
+        <v>0.317197841394207</v>
       </c>
       <c r="C40" t="n">
-        <v>0.112667298175108</v>
+        <v>0.0361940771532925</v>
       </c>
       <c r="D40" t="n">
-        <v>3.27341166421814</v>
+        <v>8.76380519527494</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0124989281393447</v>
+        <v>0.00217713049871228</v>
       </c>
       <c r="F40" t="n">
-        <v>0.312789382572376</v>
+        <v>0.269534503825193</v>
       </c>
       <c r="G40" t="n">
-        <v>0.142711678573888</v>
+        <v>0.0626359613812349</v>
       </c>
       <c r="H40" t="n">
-        <v>2.19175743497707</v>
+        <v>4.30319097658078</v>
       </c>
       <c r="I40" t="n">
-        <v>0.0621347282360774</v>
+        <v>0.0208860029987279</v>
       </c>
       <c r="J40" t="n">
-        <v>0.243834879825457</v>
+        <v>0.270349116725535</v>
       </c>
       <c r="K40" t="n">
-        <v>0.155290767393243</v>
+        <v>0.0682829078500732</v>
       </c>
       <c r="L40" t="n">
-        <v>1.57018272186133</v>
+        <v>3.9592502023952</v>
       </c>
       <c r="M40" t="n">
-        <v>0.157713847052389</v>
+        <v>0.0262622440241756</v>
       </c>
       <c r="N40"/>
       <c r="O40"/>
@@ -3013,40 +3016,40 @@
         <v>64</v>
       </c>
       <c r="B41" t="n">
-        <v>0.27751213677866</v>
+        <v>0.369352644303839</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0671572671207479</v>
+        <v>0.112767173801883</v>
       </c>
       <c r="D41" t="n">
-        <v>4.1322726292554</v>
+        <v>3.2753560442398</v>
       </c>
       <c r="E41" t="n">
-        <v>0.00542662696155843</v>
+        <v>0.0124617671520043</v>
       </c>
       <c r="F41" t="n">
-        <v>0.211166632793932</v>
+        <v>0.31338797716218</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0860745705845479</v>
+        <v>0.143140051079967</v>
       </c>
       <c r="H41" t="n">
-        <v>2.45329870785136</v>
+        <v>2.18938008473325</v>
       </c>
       <c r="I41" t="n">
-        <v>0.0479692329676695</v>
+        <v>0.0623602039410378</v>
       </c>
       <c r="J41" t="n">
-        <v>0.16296209680366</v>
+        <v>0.243615430093038</v>
       </c>
       <c r="K41" t="n">
-        <v>0.0895609764098326</v>
+        <v>0.156011600309033</v>
       </c>
       <c r="L41" t="n">
-        <v>1.81956587942881</v>
+        <v>1.56152125617887</v>
       </c>
       <c r="M41" t="n">
-        <v>0.116930189116081</v>
+        <v>0.159726021523871</v>
       </c>
       <c r="N41"/>
       <c r="O41"/>
@@ -3066,40 +3069,40 @@
         <v>65</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0413893706592531</v>
+        <v>0.277927086189662</v>
       </c>
       <c r="C42" t="n">
-        <v>0.194110806204913</v>
+        <v>0.066474467207851</v>
       </c>
       <c r="D42" t="n">
-        <v>0.213225484291484</v>
+        <v>4.18095996648826</v>
       </c>
       <c r="E42" t="n">
-        <v>0.836009895604468</v>
+        <v>0.00513529570387715</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.0398217793424907</v>
+        <v>0.21162628071097</v>
       </c>
       <c r="G42" t="n">
-        <v>0.243558334869142</v>
+        <v>0.085382289485841</v>
       </c>
       <c r="H42" t="n">
-        <v>-0.163499965475975</v>
+        <v>2.4785735072853</v>
       </c>
       <c r="I42" t="n">
-        <v>0.873823677299781</v>
+        <v>0.0463441468094824</v>
       </c>
       <c r="J42" t="n">
-        <v>-0.128439372887949</v>
+        <v>0.162790957645033</v>
       </c>
       <c r="K42" t="n">
-        <v>0.268054152080424</v>
+        <v>0.0893392673201989</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.479154573399085</v>
+        <v>1.8221658015347</v>
       </c>
       <c r="M42" t="n">
-        <v>0.643538548253971</v>
+        <v>0.11653966224653</v>
       </c>
       <c r="N42"/>
       <c r="O42"/>
@@ -3119,40 +3122,40 @@
         <v>66</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0000998240374034669</v>
+        <v>0.0419637561080956</v>
       </c>
       <c r="C43" t="n">
-        <v>0.000131775974136288</v>
+        <v>0.193289598487258</v>
       </c>
       <c r="D43" t="n">
-        <v>0.757528358699324</v>
+        <v>0.217103022803692</v>
       </c>
       <c r="E43" t="n">
-        <v>0.472264084078645</v>
+        <v>0.833080221424207</v>
       </c>
       <c r="F43" t="n">
-        <v>0.000242353851956844</v>
+        <v>-0.0392009984354846</v>
       </c>
       <c r="G43" t="n">
-        <v>0.000146967696894625</v>
+        <v>0.242732316705705</v>
       </c>
       <c r="H43" t="n">
-        <v>1.64902803185799</v>
+        <v>-0.161498884728287</v>
       </c>
       <c r="I43" t="n">
-        <v>0.141063871328655</v>
+        <v>0.875353916828701</v>
       </c>
       <c r="J43" t="n">
-        <v>0.0000197157928883685</v>
+        <v>-0.12866376974341</v>
       </c>
       <c r="K43" t="n">
-        <v>0.000181718713630705</v>
+        <v>0.267297599360008</v>
       </c>
       <c r="L43" t="n">
-        <v>0.108496216457022</v>
+        <v>-0.481350262970824</v>
       </c>
       <c r="M43" t="n">
-        <v>0.916479040602213</v>
+        <v>0.642041407548139</v>
       </c>
       <c r="N43"/>
       <c r="O43"/>
@@ -3172,40 +3175,40 @@
         <v>67</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0114633632743043</v>
+        <v>0.000099907562308433</v>
       </c>
       <c r="C44" t="n">
-        <v>0.00290339291035992</v>
+        <v>0.000131720873236942</v>
       </c>
       <c r="D44" t="n">
-        <v>3.94826454022141</v>
+        <v>0.758479349956311</v>
       </c>
       <c r="E44" t="n">
-        <v>0.00222763841033085</v>
+        <v>0.471728333032094</v>
       </c>
       <c r="F44" t="n">
-        <v>0.00633725237318135</v>
+        <v>0.000242441751937361</v>
       </c>
       <c r="G44" t="n">
-        <v>0.00376264716485033</v>
+        <v>0.000146950913849136</v>
       </c>
       <c r="H44" t="n">
-        <v>1.68425369042899</v>
+        <v>1.64981452368686</v>
       </c>
       <c r="I44" t="n">
-        <v>0.119976299237474</v>
+        <v>0.140900840858752</v>
       </c>
       <c r="J44" t="n">
-        <v>-0.00286070403811126</v>
+        <v>0.0000196733455475019</v>
       </c>
       <c r="K44" t="n">
-        <v>0.00420858998681151</v>
+        <v>0.000181600809787787</v>
       </c>
       <c r="L44" t="n">
-        <v>-0.679729801923179</v>
+        <v>0.108332917515575</v>
       </c>
       <c r="M44" t="n">
-        <v>0.510550109563103</v>
+        <v>0.916604134036131</v>
       </c>
       <c r="N44"/>
       <c r="O44"/>
@@ -3225,40 +3228,40 @@
         <v>68</v>
       </c>
       <c r="B45" t="n">
-        <v>0.00618378557900118</v>
+        <v>0.0114872872432459</v>
       </c>
       <c r="C45" t="n">
-        <v>0.00295048169815016</v>
+        <v>0.00290361562604085</v>
       </c>
       <c r="D45" t="n">
-        <v>2.09585627420708</v>
+        <v>3.95620106884089</v>
       </c>
       <c r="E45" t="n">
-        <v>0.12012327623615</v>
+        <v>0.0021977719295215</v>
       </c>
       <c r="F45" t="n">
-        <v>0.00972188643461121</v>
+        <v>0.00636221413094874</v>
       </c>
       <c r="G45" t="n">
-        <v>0.00563645685820523</v>
+        <v>0.00373233927200469</v>
       </c>
       <c r="H45" t="n">
-        <v>1.72482229158884</v>
+        <v>1.70461838200778</v>
       </c>
       <c r="I45" t="n">
-        <v>0.177371795568496</v>
+        <v>0.116029144634348</v>
       </c>
       <c r="J45" t="n">
-        <v>0.0122420664957725</v>
+        <v>-0.00286974510154672</v>
       </c>
       <c r="K45" t="n">
-        <v>0.00560187513564798</v>
+        <v>0.00418755755837106</v>
       </c>
       <c r="L45" t="n">
-        <v>2.18535154735405</v>
+        <v>-0.685302843374657</v>
       </c>
       <c r="M45" t="n">
-        <v>0.110880392140514</v>
+        <v>0.507160557079911</v>
       </c>
       <c r="N45"/>
       <c r="O45"/>
@@ -3278,33 +3281,41 @@
         <v>69</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.00553023247583393</v>
+        <v>0.00617616124235769</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0109179694969727</v>
+        <v>0.00294071011897069</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.506525730573559</v>
+        <v>2.10022783358173</v>
       </c>
       <c r="E46" t="n">
-        <v>0.627638809464756</v>
+        <v>0.119606005866744</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.0106861915127575</v>
+        <v>0.00971480091776714</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0136999254616799</v>
+        <v>0.00563535202571865</v>
       </c>
       <c r="H46" t="n">
-        <v>-0.780018222920109</v>
+        <v>1.72390311615506</v>
       </c>
       <c r="I46" t="n">
-        <v>0.459632777914354</v>
-      </c>
-      <c r="J46"/>
-      <c r="K46"/>
-      <c r="L46"/>
-      <c r="M46"/>
+        <v>0.17755148934115</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.0122445789269308</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.00560779723329241</v>
+      </c>
+      <c r="L46" t="n">
+        <v>2.18349173793893</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.111091533550176</v>
+      </c>
       <c r="N46"/>
       <c r="O46"/>
       <c r="P46"/>
@@ -3323,28 +3334,28 @@
         <v>70</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.058674812831851</v>
+        <v>-0.00554155397782807</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0633377437454968</v>
+        <v>0.0109170992299166</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.926379901810486</v>
+        <v>-0.50760315181915</v>
       </c>
       <c r="E47" t="n">
-        <v>0.37318376813647</v>
+        <v>0.626922039431536</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.0287779723498775</v>
+        <v>-0.0106934081923577</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0719295400144824</v>
+        <v>0.0136995393794039</v>
       </c>
       <c r="H47" t="n">
-        <v>-0.400085588536828</v>
+        <v>-0.780566988145182</v>
       </c>
       <c r="I47" t="n">
-        <v>0.696610900981105</v>
+        <v>0.459333106629379</v>
       </c>
       <c r="J47"/>
       <c r="K47"/>
@@ -3368,28 +3379,28 @@
         <v>71</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.0251924103061268</v>
+        <v>-0.0586062116288899</v>
       </c>
       <c r="C48" t="n">
-        <v>0.010249222385427</v>
+        <v>0.0634173005015184</v>
       </c>
       <c r="D48" t="n">
-        <v>-2.45798260187496</v>
+        <v>-0.92413601912126</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0395408415635628</v>
+        <v>0.374309991449753</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.0204396105032506</v>
+        <v>-0.0287270266457996</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0112962765487318</v>
+        <v>0.0719921737414777</v>
       </c>
       <c r="H48" t="n">
-        <v>-1.80941130602413</v>
+        <v>-0.399029854952814</v>
       </c>
       <c r="I48" t="n">
-        <v>0.110508841640691</v>
+        <v>0.697369609644012</v>
       </c>
       <c r="J48"/>
       <c r="K48"/>
@@ -3413,28 +3424,28 @@
         <v>72</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.00183684903870566</v>
+        <v>-0.0251965324296124</v>
       </c>
       <c r="C49" t="n">
-        <v>0.00650459315246244</v>
+        <v>0.0102608640004145</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.282392610214259</v>
+        <v>-2.45559559395726</v>
       </c>
       <c r="E49" t="n">
-        <v>0.78235158354921</v>
+        <v>0.0396993447139905</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.000522126847832232</v>
+        <v>-0.0204446148489958</v>
       </c>
       <c r="G49" t="n">
-        <v>0.00860991395429053</v>
+        <v>0.0113074188539086</v>
       </c>
       <c r="H49" t="n">
-        <v>-0.0606425163601134</v>
+        <v>-1.80807088807264</v>
       </c>
       <c r="I49" t="n">
-        <v>0.952609061357989</v>
+        <v>0.110746373080541</v>
       </c>
       <c r="J49"/>
       <c r="K49"/>
@@ -3458,28 +3469,28 @@
         <v>73</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.00232889718405177</v>
+        <v>-0.00183561131858082</v>
       </c>
       <c r="C50" t="n">
-        <v>0.000850007512496177</v>
+        <v>0.00650887593497339</v>
       </c>
       <c r="D50" t="n">
-        <v>-2.73985482459162</v>
+        <v>-0.282016639573316</v>
       </c>
       <c r="E50" t="n">
-        <v>0.195890570668168</v>
+        <v>0.782633606566607</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.0023898983832243</v>
+        <v>-0.000522054401535067</v>
       </c>
       <c r="G50" t="n">
-        <v>0.00209288680437248</v>
+        <v>0.00861519539797596</v>
       </c>
       <c r="H50" t="n">
-        <v>-1.14191478403481</v>
+        <v>-0.0605969310525119</v>
       </c>
       <c r="I50" t="n">
-        <v>0.439566918214072</v>
+        <v>0.952644609689804</v>
       </c>
       <c r="J50"/>
       <c r="K50"/>
@@ -3503,28 +3514,28 @@
         <v>74</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0324325030058571</v>
+        <v>-0.00232903295152164</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0169341973591071</v>
+        <v>0.00084989042756702</v>
       </c>
       <c r="D51" t="n">
-        <v>1.9152075718791</v>
+        <v>-2.74039202699218</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0866015923662191</v>
+        <v>0.19585024543971</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0426997618066586</v>
+        <v>-0.00238972652342665</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0154825239015454</v>
+        <v>0.00209199147039215</v>
       </c>
       <c r="H51" t="n">
-        <v>2.75793288472796</v>
+        <v>-1.14232135132878</v>
       </c>
       <c r="I51" t="n">
-        <v>0.0212789047968644</v>
+        <v>0.439449551792838</v>
       </c>
       <c r="J51"/>
       <c r="K51"/>
@@ -3548,28 +3559,28 @@
         <v>75</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0265216561805609</v>
+        <v>0.0324409906272564</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0276589432052317</v>
+        <v>0.0169509456202737</v>
       </c>
       <c r="D52" t="n">
-        <v>0.958881761452995</v>
+        <v>1.91381598136072</v>
       </c>
       <c r="E52" t="n">
-        <v>0.357266016899536</v>
+        <v>0.0868154804423161</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0487265528758331</v>
+        <v>0.0427144506459292</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0351893493799273</v>
+        <v>0.0155117118398942</v>
       </c>
       <c r="H52" t="n">
-        <v>1.38469604395777</v>
+        <v>2.75369031392608</v>
       </c>
       <c r="I52" t="n">
-        <v>0.194125567329897</v>
+        <v>0.0214488423186021</v>
       </c>
       <c r="J52"/>
       <c r="K52"/>
@@ -3593,28 +3604,28 @@
         <v>76</v>
       </c>
       <c r="B53" t="n">
-        <v>0.000000815380141920728</v>
+        <v>0.0265393761076402</v>
       </c>
       <c r="C53" t="n">
-        <v>0.00000529190193479835</v>
+        <v>0.0276922192523658</v>
       </c>
       <c r="D53" t="n">
-        <v>0.154080735426893</v>
+        <v>0.958369420153025</v>
       </c>
       <c r="E53" t="n">
-        <v>0.880345217185336</v>
+        <v>0.357527872672077</v>
       </c>
       <c r="F53" t="n">
-        <v>0.00000134866968535268</v>
+        <v>0.0487382760954342</v>
       </c>
       <c r="G53" t="n">
-        <v>0.00000752372991035504</v>
+        <v>0.0352057435603616</v>
       </c>
       <c r="H53" t="n">
-        <v>0.179255462572691</v>
+        <v>1.38438422730287</v>
       </c>
       <c r="I53" t="n">
-        <v>0.860986156376361</v>
+        <v>0.194231727909043</v>
       </c>
       <c r="J53"/>
       <c r="K53"/>
@@ -3638,28 +3649,28 @@
         <v>77</v>
       </c>
       <c r="B54" t="n">
-        <v>0.00000978393387053261</v>
+        <v>0.000000809880488550158</v>
       </c>
       <c r="C54" t="n">
-        <v>0.00000304674605928713</v>
+        <v>0.00000529228101771267</v>
       </c>
       <c r="D54" t="n">
-        <v>3.21127316820813</v>
+        <v>0.15303051478929</v>
       </c>
       <c r="E54" t="n">
-        <v>0.00806024565551651</v>
+        <v>0.881154863310196</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0000107414195982992</v>
+        <v>0.00000134361724549034</v>
       </c>
       <c r="G54" t="n">
-        <v>0.00000404313718944195</v>
+        <v>0.00000752449350836531</v>
       </c>
       <c r="H54" t="n">
-        <v>2.65670421136063</v>
+        <v>0.178565805658092</v>
       </c>
       <c r="I54" t="n">
-        <v>0.0228661065642451</v>
+        <v>0.861515734302048</v>
       </c>
       <c r="J54"/>
       <c r="K54"/>
@@ -3683,21 +3694,29 @@
         <v>78</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.401638245226706</v>
+        <v>0.00000978192420457078</v>
       </c>
       <c r="C55" t="n">
-        <v>0.188970132806674</v>
+        <v>0.00000304759695187702</v>
       </c>
       <c r="D55" t="n">
-        <v>-2.12540595310689</v>
+        <v>3.20971715060486</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0715269518805415</v>
-      </c>
-      <c r="F55"/>
-      <c r="G55"/>
-      <c r="H55"/>
-      <c r="I55"/>
+        <v>0.00808225751151526</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.0000107405937495581</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.00000404512595529289</v>
+      </c>
+      <c r="H55" t="n">
+        <v>2.65519389711572</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.0229263773075708</v>
+      </c>
       <c r="J55"/>
       <c r="K55"/>
       <c r="L55"/>
@@ -3720,16 +3739,16 @@
         <v>79</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.174490416497422</v>
+        <v>-0.401783984791068</v>
       </c>
       <c r="C56" t="n">
-        <v>0.03882466747209</v>
+        <v>0.189099817102642</v>
       </c>
       <c r="D56" t="n">
-        <v>-4.49431837691485</v>
+        <v>-2.12471905550804</v>
       </c>
       <c r="E56" t="n">
-        <v>0.00124544575728256</v>
+        <v>0.0715956130978466</v>
       </c>
       <c r="F56"/>
       <c r="G56"/>
@@ -3757,16 +3776,16 @@
         <v>80</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.240168124852346</v>
+        <v>-0.174435759830452</v>
       </c>
       <c r="C57" t="n">
-        <v>0.157044033687067</v>
+        <v>0.0388555836161403</v>
       </c>
       <c r="D57" t="n">
-        <v>-1.52930435632414</v>
+        <v>-4.48933572980724</v>
       </c>
       <c r="E57" t="n">
-        <v>0.152263808968861</v>
+        <v>0.00125584437120991</v>
       </c>
       <c r="F57"/>
       <c r="G57"/>
@@ -3794,16 +3813,16 @@
         <v>81</v>
       </c>
       <c r="B58" t="n">
-        <v>0.215446052803932</v>
+        <v>-0.240313508321326</v>
       </c>
       <c r="C58" t="n">
-        <v>0.115166453296876</v>
+        <v>0.156921340667771</v>
       </c>
       <c r="D58" t="n">
-        <v>1.87073619649079</v>
+        <v>-1.53142655612476</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0903377407109492</v>
+        <v>0.151744111569272</v>
       </c>
       <c r="F58"/>
       <c r="G58"/>
@@ -3831,16 +3850,16 @@
         <v>82</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.521800512844802</v>
+        <v>0.215629114847643</v>
       </c>
       <c r="C59" t="n">
-        <v>0.145373194500091</v>
+        <v>0.115429445907282</v>
       </c>
       <c r="D59" t="n">
-        <v>-3.58938602566427</v>
+        <v>1.86805986247952</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0173294507695726</v>
+        <v>0.090765907182788</v>
       </c>
       <c r="F59"/>
       <c r="G59"/>
@@ -3863,6 +3882,43 @@
       <c r="X59"/>
       <c r="Y59"/>
     </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>83</v>
+      </c>
+      <c r="B60" t="n">
+        <v>-0.52167129266288</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.145212924365412</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-3.5924577302097</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.0172742240857365</v>
+      </c>
+      <c r="F60"/>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60"/>
+      <c r="J60"/>
+      <c r="K60"/>
+      <c r="L60"/>
+      <c r="M60"/>
+      <c r="N60"/>
+      <c r="O60"/>
+      <c r="P60"/>
+      <c r="Q60"/>
+      <c r="R60"/>
+      <c r="S60"/>
+      <c r="T60"/>
+      <c r="U60"/>
+      <c r="V60"/>
+      <c r="W60"/>
+      <c r="X60"/>
+      <c r="Y60"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Analysis/Output/Reg2ct_Rob.xlsx
+++ b/Analysis/Output/Reg2ct_Rob.xlsx
@@ -677,76 +677,76 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>5.06850230866613</v>
+        <v>3.82609980423436</v>
       </c>
       <c r="C2" t="n">
-        <v>13.8724025406408</v>
+        <v>14.0897705800456</v>
       </c>
       <c r="D2" t="n">
-        <v>0.365365861740052</v>
+        <v>0.271551604229313</v>
       </c>
       <c r="E2" t="n">
-        <v>0.721666142868423</v>
+        <v>0.790937613249281</v>
       </c>
       <c r="F2" t="n">
-        <v>2.67935743380232</v>
+        <v>2.64615277274187</v>
       </c>
       <c r="G2" t="n">
-        <v>19.6424476114898</v>
+        <v>19.5981005387313</v>
       </c>
       <c r="H2" t="n">
-        <v>0.136406495096621</v>
+        <v>0.135020879575157</v>
       </c>
       <c r="I2" t="n">
-        <v>0.893916270654194</v>
+        <v>0.894984438529913</v>
       </c>
       <c r="J2" t="n">
-        <v>12.3713068699875</v>
+        <v>12.367125438777</v>
       </c>
       <c r="K2" t="n">
-        <v>0.116115426862835</v>
+        <v>0.119042280319482</v>
       </c>
       <c r="L2" t="n">
-        <v>106.543180387232</v>
+        <v>103.88851259894</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0000000000000113130136430673</v>
+        <v>0.0000000000000105484980901906</v>
       </c>
       <c r="N2" t="n">
-        <v>12.7703335576643</v>
+        <v>12.7649666903423</v>
       </c>
       <c r="O2" t="n">
-        <v>0.126304901709009</v>
+        <v>0.136592615351755</v>
       </c>
       <c r="P2" t="n">
-        <v>101.107188912474</v>
+        <v>93.4528316737316</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.000000000000000430346571154195</v>
+        <v>0.000000000000000474817769032685</v>
       </c>
       <c r="R2" t="n">
-        <v>13.1534889596485</v>
+        <v>13.1501205534627</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0452212558469665</v>
+        <v>0.0455557223015211</v>
       </c>
       <c r="T2" t="n">
-        <v>290.869607959614</v>
+        <v>288.660126304782</v>
       </c>
       <c r="U2" t="n">
-        <v>0.00000000000000000000402422338403556</v>
+        <v>0.00000000000000000000442378711414232</v>
       </c>
       <c r="V2" t="n">
-        <v>13.2624528478355</v>
+        <v>13.247834379773</v>
       </c>
       <c r="W2" t="n">
-        <v>0.0612450581413129</v>
+        <v>0.0525407774013786</v>
       </c>
       <c r="X2" t="n">
-        <v>216.547314188755</v>
+        <v>252.143859208018</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.0000000000000000000185393710231503</v>
+        <v>0.00000000000000000000206599136600155</v>
       </c>
     </row>
     <row r="3">
@@ -754,76 +754,76 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>0.00492492495605609</v>
+        <v>0.00463116965314072</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00866756015193791</v>
+        <v>0.00859789392169463</v>
       </c>
       <c r="D3" t="n">
-        <v>0.568201993378144</v>
+        <v>0.538640008276344</v>
       </c>
       <c r="E3" t="n">
-        <v>0.583111944366641</v>
+        <v>0.602549040166938</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.00435905451875667</v>
+        <v>-0.00428076052564702</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0102128280080639</v>
+        <v>0.0101232746303803</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.426821495017325</v>
+        <v>-0.422863221827481</v>
       </c>
       <c r="I3" t="n">
-        <v>0.679041320252451</v>
+        <v>0.681828089033097</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.0105634696167841</v>
+        <v>-0.0104076166682603</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0159504067338074</v>
+        <v>0.0157823080997282</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.662269608109395</v>
+        <v>-0.659448326727287</v>
       </c>
       <c r="M3" t="n">
-        <v>0.523564991929735</v>
+        <v>0.525296502165964</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.0263184585562074</v>
+        <v>-0.0262699087128869</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0174529593361916</v>
+        <v>0.01728883183151</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.50796538565421</v>
+        <v>-1.51947274222475</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.164184070024198</v>
+        <v>0.161307223493283</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.0340203164313934</v>
+        <v>-0.0333020548899184</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0330510994989439</v>
+        <v>0.0327328426207809</v>
       </c>
       <c r="T3" t="n">
-        <v>-1.02932480150866</v>
+        <v>-1.01738963754942</v>
       </c>
       <c r="U3" t="n">
-        <v>0.328925516822188</v>
+        <v>0.334280956885819</v>
       </c>
       <c r="V3" t="n">
-        <v>-0.00906346575419635</v>
+        <v>0.00622810532831693</v>
       </c>
       <c r="W3" t="n">
-        <v>0.0323546800254447</v>
+        <v>0.0308878768086745</v>
       </c>
       <c r="X3" t="n">
-        <v>-0.280128431097714</v>
+        <v>0.201635915828564</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.784637267884458</v>
+        <v>0.843900322696245</v>
       </c>
     </row>
     <row r="4">
@@ -831,64 +831,64 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.0000176092861192245</v>
+        <v>-0.0000106207800993066</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0000658584224618496</v>
+        <v>0.0000599955966053504</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.267380928072263</v>
+        <v>-0.177025993576993</v>
       </c>
       <c r="E4" t="n">
-        <v>0.800803893972112</v>
+        <v>0.866984869996043</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.00000355109157855381</v>
+        <v>-0.0000139601789199689</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0000587594463373049</v>
+        <v>0.0000491228769490336</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.0604343948063941</v>
+        <v>-0.284188952012175</v>
       </c>
       <c r="I4" t="n">
-        <v>0.954352002834099</v>
+        <v>0.788506457104514</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0000334069301375338</v>
+        <v>0.000024440647279852</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0000953642015816994</v>
+        <v>0.0000891791914473744</v>
       </c>
       <c r="L4" t="n">
-        <v>0.350308916589773</v>
+        <v>0.274062221053828</v>
       </c>
       <c r="M4" t="n">
-        <v>0.741616767631274</v>
+        <v>0.795823560379933</v>
       </c>
       <c r="N4" t="n">
-        <v>0.000248364499279352</v>
+        <v>0.000249984926895331</v>
       </c>
       <c r="O4" t="n">
-        <v>0.000125555387555657</v>
+        <v>0.000122596732673564</v>
       </c>
       <c r="P4" t="n">
-        <v>1.97812697738085</v>
+        <v>2.03908310966949</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.109576736932225</v>
+        <v>0.100737281524587</v>
       </c>
       <c r="R4" t="n">
-        <v>0.000889960814229136</v>
+        <v>0.000933489856128789</v>
       </c>
       <c r="S4" t="n">
-        <v>0.00030593387758886</v>
+        <v>0.000334530092333389</v>
       </c>
       <c r="T4" t="n">
-        <v>2.90899726843962</v>
+        <v>2.79045107606787</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0377175429430138</v>
+        <v>0.0427903637523374</v>
       </c>
       <c r="V4"/>
       <c r="W4"/>
@@ -900,64 +900,64 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0495600642539992</v>
+        <v>0.0395733295883512</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0141996857478295</v>
+        <v>0.0172437832506785</v>
       </c>
       <c r="D5" t="n">
-        <v>3.49022261014296</v>
+        <v>2.29493313694917</v>
       </c>
       <c r="E5" t="n">
-        <v>0.00553312793576466</v>
+        <v>0.043558432306029</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0428230059363088</v>
+        <v>0.0453767155384085</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0139568399077706</v>
+        <v>0.0159351925304068</v>
       </c>
       <c r="H5" t="n">
-        <v>3.06824511990474</v>
+        <v>2.84757874445651</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0114841743766033</v>
+        <v>0.0166136956318376</v>
       </c>
       <c r="J5" t="n">
-        <v>0.037355775026454</v>
+        <v>0.0395220253273426</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0147304686118542</v>
+        <v>0.0167562806651146</v>
       </c>
       <c r="L5" t="n">
-        <v>2.53595292931769</v>
+        <v>2.35863949269033</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0289614193066642</v>
+        <v>0.039003703787136</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0521844137401422</v>
+        <v>0.0504191923485992</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0198436161073645</v>
+        <v>0.0169102231665949</v>
       </c>
       <c r="P5" t="n">
-        <v>2.62978347584417</v>
+        <v>2.98158054165714</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0245768489908176</v>
+        <v>0.013121347489647</v>
       </c>
       <c r="R5" t="n">
-        <v>0.117368360718078</v>
+        <v>0.0699103752220905</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0773484580277505</v>
+        <v>0.0337011963029597</v>
       </c>
       <c r="T5" t="n">
-        <v>1.51739755013564</v>
+        <v>2.07441820740206</v>
       </c>
       <c r="U5" t="n">
-        <v>0.159425424685189</v>
+        <v>0.0635696473071333</v>
       </c>
       <c r="V5"/>
       <c r="W5"/>
@@ -969,64 +969,64 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0652060111917081</v>
+        <v>0.0486106847848011</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0190236132459365</v>
+        <v>0.0249033063938633</v>
       </c>
       <c r="D6" t="n">
-        <v>3.42763545225228</v>
+        <v>1.95197713974157</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00622062617873829</v>
+        <v>0.0786047986934882</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0600988910461625</v>
+        <v>0.0572197652667341</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0204710365559046</v>
+        <v>0.0187092880306848</v>
       </c>
       <c r="H6" t="n">
-        <v>2.9358010710419</v>
+        <v>3.05836144982583</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0144963179365306</v>
+        <v>0.0116898932038246</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0479327326040529</v>
+        <v>0.0449373736122643</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0222483005451386</v>
+        <v>0.0203280738814737</v>
       </c>
       <c r="L6" t="n">
-        <v>2.15444467350683</v>
+        <v>2.21060656677456</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0559033253883952</v>
+        <v>0.0507225923739164</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0584094733587877</v>
+        <v>0.055629864884009</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0198068068580412</v>
+        <v>0.0179618291936591</v>
       </c>
       <c r="P6" t="n">
-        <v>2.94895960653418</v>
+        <v>3.09711579395529</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.0141457700625109</v>
+        <v>0.010910412045063</v>
       </c>
       <c r="R6" t="n">
-        <v>0.0725265479684266</v>
+        <v>0.0650674822723298</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0394696757993834</v>
+        <v>0.0321892079671273</v>
       </c>
       <c r="T6" t="n">
-        <v>1.83752580935969</v>
+        <v>2.02140675032386</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0952281102404757</v>
+        <v>0.0700141488254672</v>
       </c>
       <c r="V6"/>
       <c r="W6"/>
@@ -1038,64 +1038,64 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0504652043607625</v>
+        <v>0.0413904358137376</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0178915347598852</v>
+        <v>0.0246936545114403</v>
       </c>
       <c r="D7" t="n">
-        <v>2.82061908260163</v>
+        <v>1.67615675494941</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0170753766448665</v>
+        <v>0.122743499975789</v>
       </c>
       <c r="F7" t="n">
-        <v>0.042063482633124</v>
+        <v>0.0418727375705314</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0193728108221627</v>
+        <v>0.0192656813713483</v>
       </c>
       <c r="H7" t="n">
-        <v>2.17126378919691</v>
+        <v>2.17343662876124</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0533989565745754</v>
+        <v>0.0531912556711924</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0335074847518136</v>
+        <v>0.0332488670273598</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0189375392489657</v>
+        <v>0.0188178756282244</v>
       </c>
       <c r="L7" t="n">
-        <v>1.76936846499968</v>
+        <v>1.76687675507275</v>
       </c>
       <c r="M7" t="n">
-        <v>0.105354045787202</v>
+        <v>0.105780633860094</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0387766588130092</v>
+        <v>0.0387171044844838</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0237584783800546</v>
+        <v>0.0240228433520933</v>
       </c>
       <c r="P7" t="n">
-        <v>1.63211878272316</v>
+        <v>1.61167868087147</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.131735894516207</v>
+        <v>0.136129173712449</v>
       </c>
       <c r="R7" t="n">
-        <v>0.055147935941817</v>
+        <v>0.0566912603259122</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0344726433142431</v>
+        <v>0.0351747198587866</v>
       </c>
       <c r="T7" t="n">
-        <v>1.59975942195971</v>
+        <v>1.6117046718071</v>
       </c>
       <c r="U7" t="n">
-        <v>0.13886250005183</v>
+        <v>0.136225462123178</v>
       </c>
       <c r="V7"/>
       <c r="W7"/>
@@ -1107,64 +1107,64 @@
         <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0209726030818723</v>
+        <v>0.0132744591867645</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0255033807024075</v>
+        <v>0.0333796797840134</v>
       </c>
       <c r="D8" t="n">
-        <v>0.822345999010733</v>
+        <v>0.397680842736008</v>
       </c>
       <c r="E8" t="n">
-        <v>0.431901064002031</v>
+        <v>0.700010091303843</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0232438339341275</v>
+        <v>0.0231294152527482</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0282551158636932</v>
+        <v>0.028430335177826</v>
       </c>
       <c r="H8" t="n">
-        <v>0.822641607497176</v>
+        <v>0.813547047830368</v>
       </c>
       <c r="I8" t="n">
-        <v>0.431740402085421</v>
+        <v>0.436673951879517</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0150951393775572</v>
+        <v>0.0149154338315215</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0282632687856406</v>
+        <v>0.0282723023031223</v>
       </c>
       <c r="L8" t="n">
-        <v>0.534090359188261</v>
+        <v>0.527563467297614</v>
       </c>
       <c r="M8" t="n">
-        <v>0.606071180448502</v>
+        <v>0.610414807122394</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0259228006012964</v>
+        <v>0.0260510677194984</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0371446410792716</v>
+        <v>0.0375166569748659</v>
       </c>
       <c r="P8" t="n">
-        <v>0.697888035745822</v>
+        <v>0.694386702337343</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.502684847504806</v>
+        <v>0.504776160793975</v>
       </c>
       <c r="R8" t="n">
-        <v>0.0577724052850347</v>
+        <v>0.0585936498275145</v>
       </c>
       <c r="S8" t="n">
-        <v>0.0586246253725366</v>
+        <v>0.0589549972655364</v>
       </c>
       <c r="T8" t="n">
-        <v>0.985463103907506</v>
+        <v>0.993870792048478</v>
       </c>
       <c r="U8" t="n">
-        <v>0.349837600562289</v>
+        <v>0.345942434992551</v>
       </c>
       <c r="V8"/>
       <c r="W8"/>
@@ -1176,64 +1176,64 @@
         <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0559336995867482</v>
+        <v>0.0451917643705263</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0357500847880698</v>
+        <v>0.0427901721293387</v>
       </c>
       <c r="D9" t="n">
-        <v>1.56457529872527</v>
+        <v>1.05612485581803</v>
       </c>
       <c r="E9" t="n">
-        <v>0.149896420719173</v>
+        <v>0.31657755247335</v>
       </c>
       <c r="F9" t="n">
-        <v>0.058911225192215</v>
+        <v>0.0587007483340417</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0385080368202283</v>
+        <v>0.0389944632304657</v>
       </c>
       <c r="H9" t="n">
-        <v>1.52984234089204</v>
+        <v>1.505361106963</v>
       </c>
       <c r="I9" t="n">
-        <v>0.158192995734064</v>
+        <v>0.164278689080184</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0471240067397403</v>
+        <v>0.0467974296017915</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0373481990533404</v>
+        <v>0.0376015759612064</v>
       </c>
       <c r="L9" t="n">
-        <v>1.26174776653723</v>
+        <v>1.24456032507979</v>
       </c>
       <c r="M9" t="n">
-        <v>0.236712008685613</v>
+        <v>0.242695847636237</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0735877782524987</v>
+        <v>0.0738272368454242</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0429620440477953</v>
+        <v>0.0437193951986514</v>
       </c>
       <c r="P9" t="n">
-        <v>1.71285561205217</v>
+        <v>1.68866098238481</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.118682392125232</v>
+        <v>0.12333663519737</v>
       </c>
       <c r="R9" t="n">
-        <v>0.101497538496312</v>
+        <v>0.103167732113497</v>
       </c>
       <c r="S9" t="n">
-        <v>0.0699960773650933</v>
+        <v>0.0705061732256838</v>
       </c>
       <c r="T9" t="n">
-        <v>1.45004609282475</v>
+        <v>1.46324395997591</v>
       </c>
       <c r="U9" t="n">
-        <v>0.178799371935799</v>
+        <v>0.17523603037014</v>
       </c>
       <c r="V9"/>
       <c r="W9"/>
@@ -1245,64 +1245,64 @@
         <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>0.099225324833521</v>
+        <v>0.0889319508985918</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0373641603273778</v>
+        <v>0.0432961896450592</v>
       </c>
       <c r="D10" t="n">
-        <v>2.6556283873136</v>
+        <v>2.05403643201984</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0248921630696313</v>
+        <v>0.0681406020382677</v>
       </c>
       <c r="F10" t="n">
-        <v>0.102308042158671</v>
+        <v>0.101849945332755</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0393983109275239</v>
+        <v>0.0399669329327753</v>
       </c>
       <c r="H10" t="n">
-        <v>2.59676213903876</v>
+        <v>2.54835529921866</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0274943893366082</v>
+        <v>0.0298326541288967</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0875237047518805</v>
+        <v>0.087045200513251</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0367587345391149</v>
+        <v>0.0370213612610708</v>
       </c>
       <c r="L10" t="n">
-        <v>2.38103149766341</v>
+        <v>2.35121555632213</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0395151050900701</v>
+        <v>0.0415461215731471</v>
       </c>
       <c r="N10" t="n">
-        <v>0.116805064731458</v>
+        <v>0.11680253118652</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0443014999702673</v>
+        <v>0.0451689817282723</v>
       </c>
       <c r="P10" t="n">
-        <v>2.63659390336333</v>
+        <v>2.58590135790931</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.0256887960158934</v>
+        <v>0.0279819776998816</v>
       </c>
       <c r="R10" t="n">
-        <v>0.123485959579847</v>
+        <v>0.125540560720303</v>
       </c>
       <c r="S10" t="n">
-        <v>0.0774906341795436</v>
+        <v>0.0777845188356006</v>
       </c>
       <c r="T10" t="n">
-        <v>1.59355980096554</v>
+        <v>1.61395304103681</v>
       </c>
       <c r="U10" t="n">
-        <v>0.143337379959867</v>
+        <v>0.138835041237949</v>
       </c>
       <c r="V10"/>
       <c r="W10"/>
@@ -1314,64 +1314,64 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0427981228158408</v>
+        <v>0.0407082151235974</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0824908482889542</v>
+        <v>0.0868365309333935</v>
       </c>
       <c r="D11" t="n">
-        <v>0.518822677952405</v>
+        <v>0.468791356426041</v>
       </c>
       <c r="E11" t="n">
-        <v>0.617244881977728</v>
+        <v>0.65112177310939</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0409565909106319</v>
+        <v>0.0407900679921479</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0946389041797252</v>
+        <v>0.0954958070243703</v>
       </c>
       <c r="H11" t="n">
-        <v>0.432766960539323</v>
+        <v>0.427139884599733</v>
       </c>
       <c r="I11" t="n">
-        <v>0.676066106319307</v>
+        <v>0.680001463740567</v>
       </c>
       <c r="J11" t="n">
-        <v>0.015241133844147</v>
+        <v>0.0146402018367643</v>
       </c>
       <c r="K11" t="n">
-        <v>0.088229788288395</v>
+        <v>0.0890194871809714</v>
       </c>
       <c r="L11" t="n">
-        <v>0.172743629332178</v>
+        <v>0.164460640028196</v>
       </c>
       <c r="M11" t="n">
-        <v>0.866938651416302</v>
+        <v>0.87325349121034</v>
       </c>
       <c r="N11" t="n">
-        <v>0.0408383391228827</v>
+        <v>0.0410155519905732</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0816634722070373</v>
+        <v>0.0819988756468313</v>
       </c>
       <c r="P11" t="n">
-        <v>0.500080856461103</v>
+        <v>0.500196516928195</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.629877275814179</v>
+        <v>0.629799789531587</v>
       </c>
       <c r="R11" t="n">
-        <v>0.16842817217607</v>
+        <v>0.168871660900326</v>
       </c>
       <c r="S11" t="n">
-        <v>0.129555194058036</v>
+        <v>0.129265198156262</v>
       </c>
       <c r="T11" t="n">
-        <v>1.30004955340209</v>
+        <v>1.30639695222674</v>
       </c>
       <c r="U11" t="n">
-        <v>0.22814904264206</v>
+        <v>0.226080765228944</v>
       </c>
       <c r="V11"/>
       <c r="W11"/>
@@ -1383,52 +1383,52 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0595513986264919</v>
+        <v>0.0598426309580782</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0278258348332902</v>
+        <v>0.0302929483545199</v>
       </c>
       <c r="D12" t="n">
-        <v>2.14014777933081</v>
+        <v>1.97546406700783</v>
       </c>
       <c r="E12" t="n">
-        <v>0.053037398874815</v>
+        <v>0.0708983524329945</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0496848557367073</v>
+        <v>0.0491420912967592</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0312904722483253</v>
+        <v>0.0310728296548296</v>
       </c>
       <c r="H12" t="n">
-        <v>1.58785892850711</v>
+        <v>1.58151323335051</v>
       </c>
       <c r="I12" t="n">
-        <v>0.137402660104285</v>
+        <v>0.138767002577991</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0166286422864564</v>
+        <v>0.0161443170819861</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0266378754608891</v>
+        <v>0.0262547854373084</v>
       </c>
       <c r="L12" t="n">
-        <v>0.624248067788715</v>
+        <v>0.614909503661179</v>
       </c>
       <c r="M12" t="n">
-        <v>0.543587810684331</v>
+        <v>0.549526048313803</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.0299509838138458</v>
+        <v>-0.0299260693478453</v>
       </c>
       <c r="O12" t="n">
-        <v>0.0224671249211598</v>
+        <v>0.0221844943165798</v>
       </c>
       <c r="P12" t="n">
-        <v>-1.33310265193913</v>
+        <v>-1.3489633309099</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.210088790549528</v>
+        <v>0.20511650670663</v>
       </c>
       <c r="R12"/>
       <c r="S12"/>
@@ -1444,52 +1444,52 @@
         <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0623458465926382</v>
+        <v>0.0635768205158692</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0290515342671522</v>
+        <v>0.0299546290543078</v>
       </c>
       <c r="D13" t="n">
-        <v>2.14604316657833</v>
+        <v>2.12243725003586</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0508453106607046</v>
+        <v>0.0531067856064671</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0692385945378709</v>
+        <v>0.0684750084113491</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0361211269486155</v>
+        <v>0.0362128541590741</v>
       </c>
       <c r="H13" t="n">
-        <v>1.91684480488018</v>
+        <v>1.89090338227844</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0770205617112593</v>
+        <v>0.0805437634254587</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0888213965087994</v>
+        <v>0.0889030804735211</v>
       </c>
       <c r="K13" t="n">
-        <v>0.041304253801455</v>
+        <v>0.0414885115987056</v>
       </c>
       <c r="L13" t="n">
-        <v>2.15041765276172</v>
+        <v>2.14283610203782</v>
       </c>
       <c r="M13" t="n">
-        <v>0.050369550804739</v>
+        <v>0.0509849856935731</v>
       </c>
       <c r="N13" t="n">
-        <v>0.110734610799198</v>
+        <v>0.111313150143687</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0412128100259073</v>
+        <v>0.0416395568061777</v>
       </c>
       <c r="P13" t="n">
-        <v>2.68689785359424</v>
+        <v>2.67325492107957</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.0184490264395317</v>
+        <v>0.0187644533708059</v>
       </c>
       <c r="R13"/>
       <c r="S13"/>
@@ -1505,52 +1505,52 @@
         <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0259556261507039</v>
+        <v>0.0272885053923238</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0250313042605622</v>
+        <v>0.0254713948646223</v>
       </c>
       <c r="D14" t="n">
-        <v>1.03692663716281</v>
+        <v>1.07133926262614</v>
       </c>
       <c r="E14" t="n">
-        <v>0.32044061443916</v>
+        <v>0.305333069463823</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0221327413385135</v>
+        <v>0.0220662780180774</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0273565592451006</v>
+        <v>0.0273224975250116</v>
       </c>
       <c r="H14" t="n">
-        <v>0.809046968963297</v>
+        <v>0.807623021939244</v>
       </c>
       <c r="I14" t="n">
-        <v>0.434490591413763</v>
+        <v>0.435301653622872</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0080997915254428</v>
+        <v>0.00858602249330609</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0335868310302763</v>
+        <v>0.0338549058897068</v>
       </c>
       <c r="L14" t="n">
-        <v>0.241159742583079</v>
+        <v>0.253612357431381</v>
       </c>
       <c r="M14" t="n">
-        <v>0.813604479168866</v>
+        <v>0.804200260469217</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.000768789869551024</v>
+        <v>0.000445721545101675</v>
       </c>
       <c r="O14" t="n">
-        <v>0.032627554400264</v>
+        <v>0.0328012804551786</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.0235625955938887</v>
+        <v>0.0135885410239009</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.981592320703908</v>
+        <v>0.9893835803692</v>
       </c>
       <c r="R14"/>
       <c r="S14"/>
@@ -1566,52 +1566,52 @@
         <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.030030148124265</v>
+        <v>-0.0312676949645331</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0223180384282185</v>
+        <v>0.0227994153417561</v>
       </c>
       <c r="D15" t="n">
-        <v>-1.34555499672836</v>
+        <v>-1.37142529735259</v>
       </c>
       <c r="E15" t="n">
-        <v>0.208612741599994</v>
+        <v>0.200769417332521</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.0302619236105895</v>
+        <v>-0.031255863419974</v>
       </c>
       <c r="G15" t="n">
-        <v>0.022521220992032</v>
+        <v>0.0232206899627463</v>
       </c>
       <c r="H15" t="n">
-        <v>-1.34370705839156</v>
+        <v>-1.34603508638713</v>
       </c>
       <c r="I15" t="n">
-        <v>0.20919448168234</v>
+        <v>0.208509281947845</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.0337132060654011</v>
+        <v>-0.0346968219843956</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0267711848788376</v>
+        <v>0.026959207514794</v>
       </c>
       <c r="L15" t="n">
-        <v>-1.25930944849778</v>
+        <v>-1.28701194073882</v>
       </c>
       <c r="M15" t="n">
-        <v>0.237052298900588</v>
+        <v>0.227649361642493</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.097263765619124</v>
+        <v>-0.0970690849619573</v>
       </c>
       <c r="O15" t="n">
-        <v>0.0538483942573148</v>
+        <v>0.0539105025040825</v>
       </c>
       <c r="P15" t="n">
-        <v>-1.80625192191152</v>
+        <v>-1.80055982513994</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.0972245688211314</v>
+        <v>0.0981439206207921</v>
       </c>
       <c r="R15"/>
       <c r="S15"/>
@@ -1627,52 +1627,52 @@
         <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.0042684630028829</v>
+        <v>-0.00639032417393884</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0124776564017808</v>
+        <v>0.011084287176135</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.342088519305093</v>
+        <v>-0.576520986184614</v>
       </c>
       <c r="E16" t="n">
-        <v>0.739632312814095</v>
+        <v>0.577472016438588</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.00608789769881153</v>
+        <v>-0.00546470201616889</v>
       </c>
       <c r="G16" t="n">
-        <v>0.012537164614038</v>
+        <v>0.0124668610307934</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.48558808041771</v>
+        <v>-0.43833824750841</v>
       </c>
       <c r="I16" t="n">
-        <v>0.638068899460925</v>
+        <v>0.670748255251116</v>
       </c>
       <c r="J16" t="n">
-        <v>0.00279266789307536</v>
+        <v>0.00332680985338069</v>
       </c>
       <c r="K16" t="n">
-        <v>0.00797114493739036</v>
+        <v>0.00787377950136872</v>
       </c>
       <c r="L16" t="n">
-        <v>0.350347147744831</v>
+        <v>0.422517528310564</v>
       </c>
       <c r="M16" t="n">
-        <v>0.7335437030552</v>
+        <v>0.681808555022498</v>
       </c>
       <c r="N16" t="n">
-        <v>0.0780219120442024</v>
+        <v>0.0773876379589288</v>
       </c>
       <c r="O16" t="n">
-        <v>0.0179665720215983</v>
+        <v>0.0179036979301503</v>
       </c>
       <c r="P16" t="n">
-        <v>4.34261538319104</v>
+        <v>4.32243876437426</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.00117234878779932</v>
+        <v>0.00121211033880145</v>
       </c>
       <c r="R16"/>
       <c r="S16"/>
@@ -1688,52 +1688,52 @@
         <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>0.000522597700054888</v>
+        <v>0.000521073506051775</v>
       </c>
       <c r="C17" t="n">
-        <v>0.000063890828749954</v>
+        <v>0.0000654725121639805</v>
       </c>
       <c r="D17" t="n">
-        <v>8.17954173204029</v>
+        <v>7.9586606474899</v>
       </c>
       <c r="E17" t="n">
-        <v>0.000025667387877493</v>
+        <v>0.0000331138460061346</v>
       </c>
       <c r="F17" t="n">
-        <v>0.000568889440512567</v>
+        <v>0.000568778275783805</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0000703147341432564</v>
+        <v>0.0000736456624375968</v>
       </c>
       <c r="H17" t="n">
-        <v>8.0906149677468</v>
+        <v>7.72317414166457</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0000347455549334794</v>
+        <v>0.0000457286714389796</v>
       </c>
       <c r="J17" t="n">
-        <v>0.000650382486224201</v>
+        <v>0.000650487803628778</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0000617962610054059</v>
+        <v>0.0000648233293215486</v>
       </c>
       <c r="L17" t="n">
-        <v>10.5246252061643</v>
+        <v>10.0347793061061</v>
       </c>
       <c r="M17" t="n">
-        <v>0.00000314540351952236</v>
+        <v>0.00000425450503900153</v>
       </c>
       <c r="N17" t="n">
-        <v>0.000713259839212059</v>
+        <v>0.000710789482237311</v>
       </c>
       <c r="O17" t="n">
-        <v>0.000055894603060141</v>
+        <v>0.0000587816261078024</v>
       </c>
       <c r="P17" t="n">
-        <v>12.7607997939374</v>
+        <v>12.0920350337665</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.00000100074589443277</v>
+        <v>0.00000140876902175676</v>
       </c>
       <c r="R17"/>
       <c r="S17"/>
@@ -1749,52 +1749,52 @@
         <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.0231333056423697</v>
+        <v>-0.0224545349287346</v>
       </c>
       <c r="C18" t="n">
-        <v>0.00713824783700115</v>
+        <v>0.00694960930968732</v>
       </c>
       <c r="D18" t="n">
-        <v>-3.24075405766357</v>
+        <v>-3.23104996671315</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0137220086808599</v>
+        <v>0.0132122336267834</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.0240137062560187</v>
+        <v>-0.0241416550618602</v>
       </c>
       <c r="G18" t="n">
-        <v>0.00617821468318528</v>
+        <v>0.0067423711769077</v>
       </c>
       <c r="H18" t="n">
-        <v>-3.88683583970864</v>
+        <v>-3.58058825722088</v>
       </c>
       <c r="I18" t="n">
-        <v>0.00601223570267744</v>
+        <v>0.00813692690888603</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.0217531447827515</v>
+        <v>-0.0217937281695954</v>
       </c>
       <c r="K18" t="n">
-        <v>0.00747419287437536</v>
+        <v>0.00807762928138701</v>
       </c>
       <c r="L18" t="n">
-        <v>-2.91043396235202</v>
+        <v>-2.69803520443974</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0223725350426162</v>
+        <v>0.0283497163135664</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.0253005938512693</v>
+        <v>-0.0248650103461754</v>
       </c>
       <c r="O18" t="n">
-        <v>0.00708195911333422</v>
+        <v>0.00774200644898287</v>
       </c>
       <c r="P18" t="n">
-        <v>-3.57254164368618</v>
+        <v>-3.21170106354563</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.00916289709048446</v>
+        <v>0.0136315194263155</v>
       </c>
       <c r="R18"/>
       <c r="S18"/>
@@ -1810,52 +1810,52 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>0.23133537832102</v>
+        <v>0.220812435942094</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0952933495030326</v>
+        <v>0.0932637111022577</v>
       </c>
       <c r="D19" t="n">
-        <v>2.42761304464021</v>
+        <v>2.36761365521888</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0454531791499093</v>
+        <v>0.0487715131490883</v>
       </c>
       <c r="F19" t="n">
-        <v>0.25116377467811</v>
+        <v>0.253030226809313</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0900765762195862</v>
+        <v>0.0972130333077774</v>
       </c>
       <c r="H19" t="n">
-        <v>2.78833616040012</v>
+        <v>2.6028426251058</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0274374318429493</v>
+        <v>0.0344631851776654</v>
       </c>
       <c r="J19" t="n">
-        <v>0.254483789333453</v>
+        <v>0.255324488550169</v>
       </c>
       <c r="K19" t="n">
-        <v>0.104973805223046</v>
+        <v>0.112706426209037</v>
       </c>
       <c r="L19" t="n">
-        <v>2.42425992649053</v>
+        <v>2.2653942382719</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0460521471791078</v>
+        <v>0.05627572394623</v>
       </c>
       <c r="N19" t="n">
-        <v>0.280505046065097</v>
+        <v>0.274703254643111</v>
       </c>
       <c r="O19" t="n">
-        <v>0.108129568813586</v>
+        <v>0.118190818650769</v>
       </c>
       <c r="P19" t="n">
-        <v>2.5941567060966</v>
+        <v>2.32423514600408</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.036321819686378</v>
+        <v>0.0526231272473193</v>
       </c>
       <c r="R19"/>
       <c r="S19"/>
@@ -1871,52 +1871,52 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.00101664127948907</v>
+        <v>-0.0111814726158838</v>
       </c>
       <c r="C20" t="n">
-        <v>0.113938568333004</v>
+        <v>0.115752280002353</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.00892271418153829</v>
+        <v>-0.0965982926267758</v>
       </c>
       <c r="E20" t="n">
-        <v>0.993160279295552</v>
+        <v>0.926085445955701</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.0209300101838626</v>
+        <v>-0.0212188305538627</v>
       </c>
       <c r="G20" t="n">
-        <v>0.129618382336569</v>
+        <v>0.128946956902042</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.161474088833444</v>
+        <v>-0.164554721287313</v>
       </c>
       <c r="I20" t="n">
-        <v>0.876840506587711</v>
+        <v>0.874516108850996</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0293539600318962</v>
+        <v>0.0292636243640062</v>
       </c>
       <c r="K20" t="n">
-        <v>0.111644558802207</v>
+        <v>0.110849445597497</v>
       </c>
       <c r="L20" t="n">
-        <v>0.262923337660373</v>
+        <v>0.263994323167521</v>
       </c>
       <c r="M20" t="n">
-        <v>0.801110270742313</v>
+        <v>0.800323372226551</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.0316191665713661</v>
+        <v>-0.030891093407446</v>
       </c>
       <c r="O20" t="n">
-        <v>0.142547807817171</v>
+        <v>0.141961281240223</v>
       </c>
       <c r="P20" t="n">
-        <v>-0.221814470917155</v>
+        <v>-0.217602244341349</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.831600370379311</v>
+        <v>0.83473981203731</v>
       </c>
       <c r="R20"/>
       <c r="S20"/>
@@ -1932,52 +1932,52 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0980429156481247</v>
+        <v>0.0972536640498394</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0132411059635348</v>
+        <v>0.012854207084596</v>
       </c>
       <c r="D21" t="n">
-        <v>7.40443554474444</v>
+        <v>7.56590145232564</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0000154620907931134</v>
+        <v>0.0000128451810290821</v>
       </c>
       <c r="F21" t="n">
-        <v>0.10146917128956</v>
+        <v>0.10172509105556</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0165584628794245</v>
+        <v>0.0166743115046688</v>
       </c>
       <c r="H21" t="n">
-        <v>6.1279342188003</v>
+        <v>6.10070712827196</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0000839464498061237</v>
+        <v>0.0000869432931938991</v>
       </c>
       <c r="J21" t="n">
-        <v>0.129064430545463</v>
+        <v>0.129173200471145</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0182083629334559</v>
+        <v>0.0182051264079701</v>
       </c>
       <c r="L21" t="n">
-        <v>7.08819518905352</v>
+        <v>7.09543002209495</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0000227102882677882</v>
+        <v>0.0000224305530029302</v>
       </c>
       <c r="N21" t="n">
-        <v>0.152421160009432</v>
+        <v>0.15242562405412</v>
       </c>
       <c r="O21" t="n">
-        <v>0.0293703057576056</v>
+        <v>0.0294983501505674</v>
       </c>
       <c r="P21" t="n">
-        <v>5.18963477150597</v>
+        <v>5.16725929674369</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.000332172462375162</v>
+        <v>0.000343101227644671</v>
       </c>
       <c r="R21"/>
       <c r="S21"/>
@@ -1993,52 +1993,52 @@
         <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0537900360008114</v>
+        <v>0.0535872554930326</v>
       </c>
       <c r="C22" t="n">
-        <v>0.00525332213975686</v>
+        <v>0.00577715303763419</v>
       </c>
       <c r="D22" t="n">
-        <v>10.2392418682516</v>
+        <v>9.27572026289564</v>
       </c>
       <c r="E22" t="n">
-        <v>0.000000479934629775826</v>
+        <v>0.00000131883765983034</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0547960985119815</v>
+        <v>0.0547655998171679</v>
       </c>
       <c r="G22" t="n">
-        <v>0.00747244338457384</v>
+        <v>0.0075786431973244</v>
       </c>
       <c r="H22" t="n">
-        <v>7.33308981973727</v>
+        <v>7.22630666086809</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0000130622259534122</v>
+        <v>0.0000149749911788751</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0665331048299765</v>
+        <v>0.0663795888720654</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0115709661447996</v>
+        <v>0.011521279057617</v>
       </c>
       <c r="L22" t="n">
-        <v>5.7500042777222</v>
+        <v>5.76147739674618</v>
       </c>
       <c r="M22" t="n">
-        <v>0.000117368691629638</v>
+        <v>0.000115276951194755</v>
       </c>
       <c r="N22" t="n">
-        <v>0.0721122288167511</v>
+        <v>0.072358790001138</v>
       </c>
       <c r="O22" t="n">
-        <v>0.0132276273347892</v>
+        <v>0.0130148031243866</v>
       </c>
       <c r="P22" t="n">
-        <v>5.4516374699409</v>
+        <v>5.55972989445804</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.000190589919882176</v>
+        <v>0.000161494143468279</v>
       </c>
       <c r="R22"/>
       <c r="S22"/>
@@ -2054,52 +2054,52 @@
         <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.0728943371972015</v>
+        <v>-0.0751595657591373</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0128791686006799</v>
+        <v>0.0123818355066605</v>
       </c>
       <c r="D23" t="n">
-        <v>-5.65986357173347</v>
+        <v>-6.07014733144427</v>
       </c>
       <c r="E23" t="n">
-        <v>0.000132723119446039</v>
+        <v>0.0000723616371324522</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.0804773472352689</v>
+        <v>-0.0804701625424658</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0127896469204374</v>
+        <v>0.0127854304208357</v>
       </c>
       <c r="H23" t="n">
-        <v>-6.29238224760287</v>
+        <v>-6.29389546489792</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0000526064532815564</v>
+        <v>0.0000524814366098565</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.0881130609163252</v>
+        <v>-0.0882283501885946</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0180684868615035</v>
+        <v>0.0181248141714305</v>
       </c>
       <c r="L23" t="n">
-        <v>-4.87661537967839</v>
+        <v>-4.86782095276133</v>
       </c>
       <c r="M23" t="n">
-        <v>0.000453973624907628</v>
+        <v>0.000460425813886518</v>
       </c>
       <c r="N23" t="n">
-        <v>-0.0729422619331664</v>
+        <v>-0.0730533400181231</v>
       </c>
       <c r="O23" t="n">
-        <v>0.0171955095622672</v>
+        <v>0.0172570518680479</v>
       </c>
       <c r="P23" t="n">
-        <v>-4.2419366328769</v>
+        <v>-4.23324566540732</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.001312329998155</v>
+        <v>0.00133175773977454</v>
       </c>
       <c r="R23"/>
       <c r="S23"/>
@@ -2115,40 +2115,40 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.0261124693670508</v>
+        <v>-0.0255913645533818</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0215133697039546</v>
+        <v>0.0210804691272604</v>
       </c>
       <c r="D24" t="n">
-        <v>-1.2137786746746</v>
+        <v>-1.2139845844459</v>
       </c>
       <c r="E24" t="n">
-        <v>0.251819473800827</v>
+        <v>0.25186751248693</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.025677504487472</v>
+        <v>-0.0271219155669286</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0212563266642943</v>
+        <v>0.0223186028842362</v>
       </c>
       <c r="H24" t="n">
-        <v>-1.20799350202894</v>
+        <v>-1.21521565250327</v>
       </c>
       <c r="I24" t="n">
-        <v>0.253990016586382</v>
+        <v>0.251453608009255</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.000651257703254947</v>
+        <v>-0.00207523843070687</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0273224615104624</v>
+        <v>0.0273188917274833</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.0238359820913487</v>
+        <v>-0.0759634926412168</v>
       </c>
       <c r="M24" t="n">
-        <v>0.981436303758852</v>
+        <v>0.940901153709243</v>
       </c>
       <c r="N24"/>
       <c r="O24"/>
@@ -2168,40 +2168,40 @@
         <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0284228939353878</v>
+        <v>0.0153111005736215</v>
       </c>
       <c r="C25" t="n">
-        <v>0.063477631969473</v>
+        <v>0.0546966097355312</v>
       </c>
       <c r="D25" t="n">
-        <v>0.447762354289724</v>
+        <v>0.279927780673311</v>
       </c>
       <c r="E25" t="n">
-        <v>0.669671080796636</v>
+        <v>0.788650970512454</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0173048734647151</v>
+        <v>0.0188346291272272</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0661222181389142</v>
+        <v>0.0667459886519819</v>
       </c>
       <c r="H25" t="n">
-        <v>0.261710419761778</v>
+        <v>0.282183686355029</v>
       </c>
       <c r="I25" t="n">
-        <v>0.802116427331141</v>
+        <v>0.787015954200544</v>
       </c>
       <c r="J25" t="n">
-        <v>0.03862052006024</v>
+        <v>0.0402976785839985</v>
       </c>
       <c r="K25" t="n">
-        <v>0.086284529774675</v>
+        <v>0.0873650537990426</v>
       </c>
       <c r="L25" t="n">
-        <v>0.447594953128844</v>
+        <v>0.461256267027448</v>
       </c>
       <c r="M25" t="n">
-        <v>0.669921854937182</v>
+        <v>0.660497028485241</v>
       </c>
       <c r="N25"/>
       <c r="O25"/>
@@ -2221,40 +2221,40 @@
         <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.0384342700876635</v>
+        <v>-0.02777372852711</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0123894419430775</v>
+        <v>0.00934887964282208</v>
       </c>
       <c r="D26" t="n">
-        <v>-3.10217928008762</v>
+        <v>-2.97080822389603</v>
       </c>
       <c r="E26" t="n">
-        <v>0.00957467240130202</v>
+        <v>0.0122587507534474</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.0337971740825341</v>
+        <v>-0.0294652005261522</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0119219752324431</v>
+        <v>0.012286805478708</v>
       </c>
       <c r="H26" t="n">
-        <v>-2.83486363824699</v>
+        <v>-2.39811727932155</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0155710304829152</v>
+        <v>0.0345949357271717</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.0177964381343151</v>
+        <v>-0.014246237353245</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0134582301194346</v>
+        <v>0.0124140429233069</v>
       </c>
       <c r="L26" t="n">
-        <v>-1.32234610170738</v>
+        <v>-1.14759047002312</v>
       </c>
       <c r="M26" t="n">
-        <v>0.211797281059205</v>
+        <v>0.27470303252565</v>
       </c>
       <c r="N26"/>
       <c r="O26"/>
@@ -2274,40 +2274,40 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0573423405992949</v>
+        <v>0.0603492834835422</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0224409741979295</v>
+        <v>0.0226465414576094</v>
       </c>
       <c r="D27" t="n">
-        <v>2.55525183949392</v>
+        <v>2.66483443383645</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0358687183217003</v>
+        <v>0.0305322102258213</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0787187414595602</v>
+        <v>0.0827945099383205</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0247399998897714</v>
+        <v>0.0252876825497104</v>
       </c>
       <c r="H27" t="n">
-        <v>3.18184081690744</v>
+        <v>3.27410429071796</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0141275782261689</v>
+        <v>0.0123319661707879</v>
       </c>
       <c r="J27" t="n">
-        <v>0.0754218224956031</v>
+        <v>0.078779087511325</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0279088203204193</v>
+        <v>0.0293733303113704</v>
       </c>
       <c r="L27" t="n">
-        <v>2.70243677911464</v>
+        <v>2.68199372274888</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0282992641821888</v>
+        <v>0.0291177347121037</v>
       </c>
       <c r="N27"/>
       <c r="O27"/>
@@ -2327,40 +2327,40 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0117227758806013</v>
+        <v>0.0184227448124197</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0261222823513066</v>
+        <v>0.0242110204374715</v>
       </c>
       <c r="D28" t="n">
-        <v>0.448765376736499</v>
+        <v>0.760923929662489</v>
       </c>
       <c r="E28" t="n">
-        <v>0.661366066000037</v>
+        <v>0.461367631969888</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0165351186422675</v>
+        <v>0.0270894951615599</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0290909701277898</v>
+        <v>0.0212934218680496</v>
       </c>
       <c r="H28" t="n">
-        <v>0.568393510757208</v>
+        <v>1.27220018132488</v>
       </c>
       <c r="I28" t="n">
-        <v>0.579972483929764</v>
+        <v>0.227433841053198</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.00967045298389098</v>
+        <v>-0.00156448897654849</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0382699290010466</v>
+        <v>0.035740663330267</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.252690643445577</v>
+        <v>-0.0437733615095946</v>
       </c>
       <c r="M28" t="n">
-        <v>0.804603507824779</v>
+        <v>0.96579180218396</v>
       </c>
       <c r="N28"/>
       <c r="O28"/>
@@ -2380,40 +2380,40 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0158416008711869</v>
+        <v>0.0101547022136064</v>
       </c>
       <c r="C29" t="n">
-        <v>0.10494871989054</v>
+        <v>0.115318982790394</v>
       </c>
       <c r="D29" t="n">
-        <v>0.150946108611039</v>
+        <v>0.0880575076877303</v>
       </c>
       <c r="E29" t="n">
-        <v>0.897002950966261</v>
+        <v>0.939725875629673</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0329272755128065</v>
+        <v>0.0330439061823856</v>
       </c>
       <c r="G29" t="n">
-        <v>0.127218140076502</v>
+        <v>0.126792900753676</v>
       </c>
       <c r="H29" t="n">
-        <v>0.258825317623775</v>
+        <v>0.26061322034568</v>
       </c>
       <c r="I29" t="n">
-        <v>0.825772286101908</v>
+        <v>0.824598761497935</v>
       </c>
       <c r="J29" t="n">
-        <v>0.0412476556897676</v>
+        <v>0.0413748267103963</v>
       </c>
       <c r="K29" t="n">
-        <v>0.123214193089566</v>
+        <v>0.122896662953355</v>
       </c>
       <c r="L29" t="n">
-        <v>0.334763834064019</v>
+        <v>0.336663549002141</v>
       </c>
       <c r="M29" t="n">
-        <v>0.777403878828983</v>
+        <v>0.776196414530255</v>
       </c>
       <c r="N29"/>
       <c r="O29"/>
@@ -2433,40 +2433,40 @@
         <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>0.00456695503994196</v>
+        <v>0.00306295489181502</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0123973797971739</v>
+        <v>0.0128900002755439</v>
       </c>
       <c r="D30" t="n">
-        <v>0.368380667097335</v>
+        <v>0.237622562167539</v>
       </c>
       <c r="E30" t="n">
-        <v>0.718718908536942</v>
+        <v>0.816003558816795</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.00422184954162501</v>
+        <v>-0.00363926775070646</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0134780885447893</v>
+        <v>0.0141233254090934</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.313238003118565</v>
+        <v>-0.257677823408592</v>
       </c>
       <c r="I30" t="n">
-        <v>0.759228033548038</v>
+        <v>0.800821547604189</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.0285543443781857</v>
+        <v>-0.0279914954746916</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0257062219264761</v>
+        <v>0.0260188332083508</v>
       </c>
       <c r="L30" t="n">
-        <v>-1.11079506198366</v>
+        <v>-1.07581670748047</v>
       </c>
       <c r="M30" t="n">
-        <v>0.287314895055037</v>
+        <v>0.302107561352349</v>
       </c>
       <c r="N30"/>
       <c r="O30"/>
@@ -2486,40 +2486,40 @@
         <v>54</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.0216152032135337</v>
+        <v>-0.014519949609171</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0821754919543379</v>
+        <v>0.0714646530726406</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.263037101445582</v>
+        <v>-0.203176661256748</v>
       </c>
       <c r="E31" t="n">
-        <v>0.802804475979165</v>
+        <v>0.847591487894023</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.0231303496169369</v>
+        <v>-0.00679615492141846</v>
       </c>
       <c r="G31" t="n">
-        <v>0.083941252117941</v>
+        <v>0.0706120876972454</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.275554021810846</v>
+        <v>-0.0962463388783729</v>
       </c>
       <c r="I31" t="n">
-        <v>0.793725946718729</v>
+        <v>0.927351610128431</v>
       </c>
       <c r="J31" t="n">
-        <v>0.00866804684375591</v>
+        <v>0.0127297622400407</v>
       </c>
       <c r="K31" t="n">
-        <v>0.0847156262129224</v>
+        <v>0.0721559392305882</v>
       </c>
       <c r="L31" t="n">
-        <v>0.102319338606668</v>
+        <v>0.176420158559093</v>
       </c>
       <c r="M31" t="n">
-        <v>0.922413478126644</v>
+        <v>0.867422410305926</v>
       </c>
       <c r="N31"/>
       <c r="O31"/>
@@ -2539,40 +2539,40 @@
         <v>55</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.0905503356634207</v>
+        <v>-0.112250717461908</v>
       </c>
       <c r="C32" t="n">
-        <v>0.123517528196999</v>
+        <v>0.127709947604539</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.733097050962691</v>
+        <v>-0.878950462101028</v>
       </c>
       <c r="E32" t="n">
-        <v>0.541288720837899</v>
+        <v>0.473979528790642</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.139100501857102</v>
+        <v>-0.140655470338752</v>
       </c>
       <c r="G32" t="n">
-        <v>0.123090932648274</v>
+        <v>0.123862208919942</v>
       </c>
       <c r="H32" t="n">
-        <v>-1.13006294504709</v>
+        <v>-1.13558018676757</v>
       </c>
       <c r="I32" t="n">
-        <v>0.378254369932113</v>
+        <v>0.376413023320823</v>
       </c>
       <c r="J32" t="n">
-        <v>0.0196219369878128</v>
+        <v>0.0182010924831066</v>
       </c>
       <c r="K32" t="n">
-        <v>0.0659568746349389</v>
+        <v>0.0656354244112453</v>
       </c>
       <c r="L32" t="n">
-        <v>0.297496464112606</v>
+        <v>0.277305931154887</v>
       </c>
       <c r="M32" t="n">
-        <v>0.795123814576812</v>
+        <v>0.808488774132149</v>
       </c>
       <c r="N32"/>
       <c r="O32"/>
@@ -2592,40 +2592,40 @@
         <v>56</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0540354414652952</v>
+        <v>0.0693253729323548</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0511993031908533</v>
+        <v>0.0517614285135224</v>
       </c>
       <c r="D33" t="n">
-        <v>1.05539407956139</v>
+        <v>1.33932495534284</v>
       </c>
       <c r="E33" t="n">
-        <v>0.313798963376211</v>
+        <v>0.207686539579712</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0712579457938241</v>
+        <v>0.0708475577843808</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0560357351542455</v>
+        <v>0.0557336913316324</v>
       </c>
       <c r="H33" t="n">
-        <v>1.27165184141294</v>
+        <v>1.27118007244157</v>
       </c>
       <c r="I33" t="n">
-        <v>0.229766659819902</v>
+        <v>0.229931220386759</v>
       </c>
       <c r="J33" t="n">
-        <v>0.0980078717754602</v>
+        <v>0.0978293244443889</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0672245742750571</v>
+        <v>0.0670473251147282</v>
       </c>
       <c r="L33" t="n">
-        <v>1.45791732907746</v>
+        <v>1.45910853679827</v>
       </c>
       <c r="M33" t="n">
-        <v>0.175312104087091</v>
+        <v>0.174946980214925</v>
       </c>
       <c r="N33"/>
       <c r="O33"/>
@@ -2645,40 +2645,40 @@
         <v>57</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0314699779953451</v>
+        <v>0.0185491398610766</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0261177206135073</v>
+        <v>0.0263519015930565</v>
       </c>
       <c r="D34" t="n">
-        <v>1.20492819649314</v>
+        <v>0.703901378637666</v>
       </c>
       <c r="E34" t="n">
-        <v>0.261778840507222</v>
+        <v>0.500637780833692</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0450090516076592</v>
+        <v>0.0444173949658421</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0324155733786435</v>
+        <v>0.0323099295637477</v>
       </c>
       <c r="H34" t="n">
-        <v>1.38850086290044</v>
+        <v>1.37472893211377</v>
       </c>
       <c r="I34" t="n">
-        <v>0.201022909624341</v>
+        <v>0.205052168507607</v>
       </c>
       <c r="J34" t="n">
-        <v>0.0387630901409593</v>
+        <v>0.0381072611689404</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0458782713723293</v>
+        <v>0.0458570242279138</v>
       </c>
       <c r="L34" t="n">
-        <v>0.844911741036926</v>
+        <v>0.831001614486446</v>
       </c>
       <c r="M34" t="n">
-        <v>0.423823539834215</v>
+        <v>0.431129905102172</v>
       </c>
       <c r="N34"/>
       <c r="O34"/>
@@ -2698,40 +2698,40 @@
         <v>58</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0227474944357048</v>
+        <v>0.0259997528647661</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0553561983470084</v>
+        <v>0.0552214388965069</v>
       </c>
       <c r="D35" t="n">
-        <v>0.410929491456563</v>
+        <v>0.470827153082581</v>
       </c>
       <c r="E35" t="n">
-        <v>0.688049354490376</v>
+        <v>0.645814118263141</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0326947590695744</v>
+        <v>0.0326601422288809</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0564034948771344</v>
+        <v>0.0565074405322558</v>
       </c>
       <c r="H35" t="n">
-        <v>0.579658390686507</v>
+        <v>0.577979500066681</v>
       </c>
       <c r="I35" t="n">
-        <v>0.572362009830586</v>
+        <v>0.573435176465857</v>
       </c>
       <c r="J35" t="n">
-        <v>0.0224924952334378</v>
+        <v>0.0226718602425933</v>
       </c>
       <c r="K35" t="n">
-        <v>0.0498519993023386</v>
+        <v>0.0495313645744145</v>
       </c>
       <c r="L35" t="n">
-        <v>0.451185419806878</v>
+        <v>0.45772734988013</v>
       </c>
       <c r="M35" t="n">
-        <v>0.661030393252223</v>
+        <v>0.656431697353633</v>
       </c>
       <c r="N35"/>
       <c r="O35"/>
@@ -2751,40 +2751,40 @@
         <v>59</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0651741546818932</v>
+        <v>0.0608008235900316</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0680976895941817</v>
+        <v>0.0613947452181718</v>
       </c>
       <c r="D36" t="n">
-        <v>0.957068515397352</v>
+        <v>0.990326181401525</v>
       </c>
       <c r="E36" t="n">
-        <v>0.36040865238257</v>
+        <v>0.345174871165426</v>
       </c>
       <c r="F36" t="n">
-        <v>0.059666986024779</v>
+        <v>0.0594125713606018</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0770195013585284</v>
+        <v>0.0771468074278051</v>
       </c>
       <c r="H36" t="n">
-        <v>0.774699718543063</v>
+        <v>0.770123526060373</v>
       </c>
       <c r="I36" t="n">
-        <v>0.456337142341845</v>
+        <v>0.458895667988658</v>
       </c>
       <c r="J36" t="n">
-        <v>0.127470304365446</v>
+        <v>0.127646962394449</v>
       </c>
       <c r="K36" t="n">
-        <v>0.0821584137039053</v>
+        <v>0.0825338272806927</v>
       </c>
       <c r="L36" t="n">
-        <v>1.55151856783461</v>
+        <v>1.54660175833515</v>
       </c>
       <c r="M36" t="n">
-        <v>0.154981366027814</v>
+        <v>0.156000738181191</v>
       </c>
       <c r="N36"/>
       <c r="O36"/>
@@ -2804,40 +2804,40 @@
         <v>60</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0558689276635474</v>
+        <v>0.0472511264774487</v>
       </c>
       <c r="C37" t="n">
-        <v>0.105814872056663</v>
+        <v>0.104755990641666</v>
       </c>
       <c r="D37" t="n">
-        <v>0.527987480187379</v>
+        <v>0.45105894362718</v>
       </c>
       <c r="E37" t="n">
-        <v>0.607692609984328</v>
+        <v>0.66058961397442</v>
       </c>
       <c r="F37" t="n">
-        <v>0.138181035736572</v>
+        <v>0.137923829227102</v>
       </c>
       <c r="G37" t="n">
-        <v>0.10046103316483</v>
+        <v>0.0999333525013616</v>
       </c>
       <c r="H37" t="n">
-        <v>1.37546898915377</v>
+        <v>1.38015813314401</v>
       </c>
       <c r="I37" t="n">
-        <v>0.195278075705953</v>
+        <v>0.193896731727256</v>
       </c>
       <c r="J37" t="n">
-        <v>0.227840353658499</v>
+        <v>0.227832240717924</v>
       </c>
       <c r="K37" t="n">
-        <v>0.110371256851753</v>
+        <v>0.110073349723199</v>
       </c>
       <c r="L37" t="n">
-        <v>2.06430877166259</v>
+        <v>2.06982199861141</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0664855189423056</v>
+        <v>0.065927886643865</v>
       </c>
       <c r="N37"/>
       <c r="O37"/>
@@ -2857,40 +2857,40 @@
         <v>61</v>
       </c>
       <c r="B38" t="n">
-        <v>0.248625288043633</v>
+        <v>0.258643061768989</v>
       </c>
       <c r="C38" t="n">
-        <v>0.142546394899779</v>
+        <v>0.139840063847365</v>
       </c>
       <c r="D38" t="n">
-        <v>1.74417099933278</v>
+        <v>1.84956338443392</v>
       </c>
       <c r="E38" t="n">
-        <v>0.162554324043783</v>
+        <v>0.145015470305161</v>
       </c>
       <c r="F38" t="n">
-        <v>0.503761419025811</v>
+        <v>0.50369088398192</v>
       </c>
       <c r="G38" t="n">
-        <v>0.135179862573471</v>
+        <v>0.13631425605962</v>
       </c>
       <c r="H38" t="n">
-        <v>3.72660105902987</v>
+        <v>3.6950712166277</v>
       </c>
       <c r="I38" t="n">
-        <v>0.0210344148022319</v>
+        <v>0.0217341125183067</v>
       </c>
       <c r="J38" t="n">
-        <v>0.586268260417123</v>
+        <v>0.586395117418819</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0943129492796525</v>
+        <v>0.0950013983739793</v>
       </c>
       <c r="L38" t="n">
-        <v>6.21620111442753</v>
+        <v>6.17248932600377</v>
       </c>
       <c r="M38" t="n">
-        <v>0.00474133212918638</v>
+        <v>0.00488408995059605</v>
       </c>
       <c r="N38"/>
       <c r="O38"/>
@@ -2910,40 +2910,40 @@
         <v>62</v>
       </c>
       <c r="B39" t="n">
-        <v>0.263961077102333</v>
+        <v>0.267341969651698</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0203935218264283</v>
+        <v>0.0233636440704272</v>
       </c>
       <c r="D39" t="n">
-        <v>12.9433787527695</v>
+        <v>11.4426486230412</v>
       </c>
       <c r="E39" t="n">
-        <v>0.00511123878741682</v>
+        <v>0.006436065366159</v>
       </c>
       <c r="F39" t="n">
-        <v>0.21962291437445</v>
+        <v>0.220510211248867</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0443446228674595</v>
+        <v>0.0449277285557024</v>
       </c>
       <c r="H39" t="n">
-        <v>4.95263912900724</v>
+        <v>4.90810949802355</v>
       </c>
       <c r="I39" t="n">
-        <v>0.0388055605589644</v>
+        <v>0.0394200975961072</v>
       </c>
       <c r="J39" t="n">
-        <v>0.215510694915741</v>
+        <v>0.215953950548554</v>
       </c>
       <c r="K39" t="n">
-        <v>0.0478073349858769</v>
+        <v>0.048142657910547</v>
       </c>
       <c r="L39" t="n">
-        <v>4.5079001994026</v>
+        <v>4.4857089309405</v>
       </c>
       <c r="M39" t="n">
-        <v>0.045440567288301</v>
+        <v>0.0457918315654285</v>
       </c>
       <c r="N39"/>
       <c r="O39"/>
@@ -2963,40 +2963,40 @@
         <v>63</v>
       </c>
       <c r="B40" t="n">
-        <v>0.317197841394207</v>
+        <v>0.313228060128501</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0361940771532925</v>
+        <v>0.039671950132038</v>
       </c>
       <c r="D40" t="n">
-        <v>8.76380519527494</v>
+        <v>7.8954540698403</v>
       </c>
       <c r="E40" t="n">
-        <v>0.00217713049871228</v>
+        <v>0.00301119888675691</v>
       </c>
       <c r="F40" t="n">
-        <v>0.269534503825193</v>
+        <v>0.26827354597408</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0626359613812349</v>
+        <v>0.0625483821092732</v>
       </c>
       <c r="H40" t="n">
-        <v>4.30319097658078</v>
+        <v>4.28905651796719</v>
       </c>
       <c r="I40" t="n">
-        <v>0.0208860029987279</v>
+        <v>0.0209448127372353</v>
       </c>
       <c r="J40" t="n">
-        <v>0.270349116725535</v>
+        <v>0.269286189153119</v>
       </c>
       <c r="K40" t="n">
-        <v>0.0682829078500732</v>
+        <v>0.068101090711337</v>
       </c>
       <c r="L40" t="n">
-        <v>3.9592502023952</v>
+        <v>3.95421257340141</v>
       </c>
       <c r="M40" t="n">
-        <v>0.0262622440241756</v>
+        <v>0.0262150555814166</v>
       </c>
       <c r="N40"/>
       <c r="O40"/>
@@ -3016,40 +3016,40 @@
         <v>64</v>
       </c>
       <c r="B41" t="n">
-        <v>0.369352644303839</v>
+        <v>0.372444609419877</v>
       </c>
       <c r="C41" t="n">
-        <v>0.112767173801883</v>
+        <v>0.118269440592051</v>
       </c>
       <c r="D41" t="n">
-        <v>3.2753560442398</v>
+        <v>3.14911956592876</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0124617671520043</v>
+        <v>0.0147451888932897</v>
       </c>
       <c r="F41" t="n">
-        <v>0.31338797716218</v>
+        <v>0.31399544556079</v>
       </c>
       <c r="G41" t="n">
-        <v>0.143140051079967</v>
+        <v>0.142283868257982</v>
       </c>
       <c r="H41" t="n">
-        <v>2.18938008473325</v>
+        <v>2.20682393165941</v>
       </c>
       <c r="I41" t="n">
-        <v>0.0623602039410378</v>
+        <v>0.0603164201040451</v>
       </c>
       <c r="J41" t="n">
-        <v>0.243615430093038</v>
+        <v>0.244123694714972</v>
       </c>
       <c r="K41" t="n">
-        <v>0.156011600309033</v>
+        <v>0.154214087071075</v>
       </c>
       <c r="L41" t="n">
-        <v>1.56152125617887</v>
+        <v>1.58301812338622</v>
       </c>
       <c r="M41" t="n">
-        <v>0.159726021523871</v>
+        <v>0.154320828731182</v>
       </c>
       <c r="N41"/>
       <c r="O41"/>
@@ -3069,40 +3069,40 @@
         <v>65</v>
       </c>
       <c r="B42" t="n">
-        <v>0.277927086189662</v>
+        <v>0.272376273746133</v>
       </c>
       <c r="C42" t="n">
-        <v>0.066474467207851</v>
+        <v>0.0715056393421058</v>
       </c>
       <c r="D42" t="n">
-        <v>4.18095996648826</v>
+        <v>3.80915793848088</v>
       </c>
       <c r="E42" t="n">
-        <v>0.00513529570387715</v>
+        <v>0.00786890504535007</v>
       </c>
       <c r="F42" t="n">
-        <v>0.21162628071097</v>
+        <v>0.211582370534133</v>
       </c>
       <c r="G42" t="n">
-        <v>0.085382289485841</v>
+        <v>0.086999066183962</v>
       </c>
       <c r="H42" t="n">
-        <v>2.4785735072853</v>
+        <v>2.43200737450142</v>
       </c>
       <c r="I42" t="n">
-        <v>0.0463441468094824</v>
+        <v>0.0491512009882454</v>
       </c>
       <c r="J42" t="n">
-        <v>0.162790957645033</v>
+        <v>0.162515907063587</v>
       </c>
       <c r="K42" t="n">
-        <v>0.0893392673201989</v>
+        <v>0.090282016462358</v>
       </c>
       <c r="L42" t="n">
-        <v>1.8221658015347</v>
+        <v>1.80009168416554</v>
       </c>
       <c r="M42" t="n">
-        <v>0.11653966224653</v>
+        <v>0.119864237124954</v>
       </c>
       <c r="N42"/>
       <c r="O42"/>
@@ -3122,40 +3122,40 @@
         <v>66</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0419637561080956</v>
+        <v>0.0639879581654391</v>
       </c>
       <c r="C43" t="n">
-        <v>0.193289598487258</v>
+        <v>0.194952368736371</v>
       </c>
       <c r="D43" t="n">
-        <v>0.217103022803692</v>
+        <v>0.328223548039924</v>
       </c>
       <c r="E43" t="n">
-        <v>0.833080221424207</v>
+        <v>0.750419749019972</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.0392009984354846</v>
+        <v>-0.038027690644307</v>
       </c>
       <c r="G43" t="n">
-        <v>0.242732316705705</v>
+        <v>0.245380210557906</v>
       </c>
       <c r="H43" t="n">
-        <v>-0.161498884728287</v>
+        <v>-0.15497456195773</v>
       </c>
       <c r="I43" t="n">
-        <v>0.875353916828701</v>
+        <v>0.880343009095683</v>
       </c>
       <c r="J43" t="n">
-        <v>-0.12866376974341</v>
+        <v>-0.128301560282968</v>
       </c>
       <c r="K43" t="n">
-        <v>0.267297599360008</v>
+        <v>0.270161907104272</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.481350262970824</v>
+        <v>-0.474906183696167</v>
       </c>
       <c r="M43" t="n">
-        <v>0.642041407548139</v>
+        <v>0.646446129762222</v>
       </c>
       <c r="N43"/>
       <c r="O43"/>
@@ -3175,40 +3175,40 @@
         <v>67</v>
       </c>
       <c r="B44" t="n">
-        <v>0.000099907562308433</v>
+        <v>0.000122575793430979</v>
       </c>
       <c r="C44" t="n">
-        <v>0.000131720873236942</v>
+        <v>0.000132697310288684</v>
       </c>
       <c r="D44" t="n">
-        <v>0.758479349956311</v>
+        <v>0.923724777573213</v>
       </c>
       <c r="E44" t="n">
-        <v>0.471728333032094</v>
+        <v>0.38491606612726</v>
       </c>
       <c r="F44" t="n">
-        <v>0.000242441751937361</v>
+        <v>0.000237856167646044</v>
       </c>
       <c r="G44" t="n">
-        <v>0.000146950913849136</v>
+        <v>0.000149862991938249</v>
       </c>
       <c r="H44" t="n">
-        <v>1.64981452368686</v>
+        <v>1.58715747343449</v>
       </c>
       <c r="I44" t="n">
-        <v>0.140900840858752</v>
+        <v>0.154422913345103</v>
       </c>
       <c r="J44" t="n">
-        <v>0.0000196733455475019</v>
+        <v>0.0000161810060836249</v>
       </c>
       <c r="K44" t="n">
-        <v>0.000181600809787787</v>
+        <v>0.000181831090730765</v>
       </c>
       <c r="L44" t="n">
-        <v>0.108332917515575</v>
+        <v>0.0889892153129296</v>
       </c>
       <c r="M44" t="n">
-        <v>0.916604134036131</v>
+        <v>0.931445057395413</v>
       </c>
       <c r="N44"/>
       <c r="O44"/>
@@ -3228,40 +3228,40 @@
         <v>68</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0114872872432459</v>
+        <v>0.0108169226766626</v>
       </c>
       <c r="C45" t="n">
-        <v>0.00290361562604085</v>
+        <v>0.00355054425164802</v>
       </c>
       <c r="D45" t="n">
-        <v>3.95620106884089</v>
+        <v>3.04655340421171</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0021977719295215</v>
+        <v>0.0109522496442189</v>
       </c>
       <c r="F45" t="n">
-        <v>0.00636221413094874</v>
+        <v>0.00618396623845593</v>
       </c>
       <c r="G45" t="n">
-        <v>0.00373233927200469</v>
+        <v>0.00402624657050739</v>
       </c>
       <c r="H45" t="n">
-        <v>1.70461838200778</v>
+        <v>1.5359134444855</v>
       </c>
       <c r="I45" t="n">
-        <v>0.116029144634348</v>
+        <v>0.152500206465454</v>
       </c>
       <c r="J45" t="n">
-        <v>-0.00286974510154672</v>
+        <v>-0.00290379390913908</v>
       </c>
       <c r="K45" t="n">
-        <v>0.00418755755837106</v>
+        <v>0.00417930751927529</v>
       </c>
       <c r="L45" t="n">
-        <v>-0.685302843374657</v>
+        <v>-0.694802642721685</v>
       </c>
       <c r="M45" t="n">
-        <v>0.507160557079911</v>
+        <v>0.501397903053845</v>
       </c>
       <c r="N45"/>
       <c r="O45"/>
@@ -3281,40 +3281,40 @@
         <v>69</v>
       </c>
       <c r="B46" t="n">
-        <v>0.00617616124235769</v>
+        <v>0.00559004654259597</v>
       </c>
       <c r="C46" t="n">
-        <v>0.00294071011897069</v>
+        <v>0.00307098137025791</v>
       </c>
       <c r="D46" t="n">
-        <v>2.10022783358173</v>
+        <v>1.82028018689234</v>
       </c>
       <c r="E46" t="n">
-        <v>0.119606005866744</v>
+        <v>0.15527681743318</v>
       </c>
       <c r="F46" t="n">
-        <v>0.00971480091776714</v>
+        <v>0.0106603881350729</v>
       </c>
       <c r="G46" t="n">
-        <v>0.00563535202571865</v>
+        <v>0.00540322989803968</v>
       </c>
       <c r="H46" t="n">
-        <v>1.72390311615506</v>
+        <v>1.97296586231515</v>
       </c>
       <c r="I46" t="n">
-        <v>0.17755148934115</v>
+        <v>0.133355136731043</v>
       </c>
       <c r="J46" t="n">
-        <v>0.0122445789269308</v>
+        <v>0.0130869302563925</v>
       </c>
       <c r="K46" t="n">
-        <v>0.00560779723329241</v>
+        <v>0.00499210882452935</v>
       </c>
       <c r="L46" t="n">
-        <v>2.18349173793893</v>
+        <v>2.62152343155828</v>
       </c>
       <c r="M46" t="n">
-        <v>0.111091533550176</v>
+        <v>0.0698937265962337</v>
       </c>
       <c r="N46"/>
       <c r="O46"/>
@@ -3334,28 +3334,28 @@
         <v>70</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.00554155397782807</v>
+        <v>-0.00636144870124073</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0109170992299166</v>
+        <v>0.0110058403606845</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.50760315181915</v>
+        <v>-0.578006630367398</v>
       </c>
       <c r="E47" t="n">
-        <v>0.626922039431536</v>
+        <v>0.581005370736787</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.0106934081923577</v>
+        <v>-0.0105855014991897</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0136995393794039</v>
+        <v>0.0137228345935237</v>
       </c>
       <c r="H47" t="n">
-        <v>-0.780566988145182</v>
+        <v>-0.771378640983209</v>
       </c>
       <c r="I47" t="n">
-        <v>0.459333106629379</v>
+        <v>0.464444437807784</v>
       </c>
       <c r="J47"/>
       <c r="K47"/>
@@ -3379,28 +3379,28 @@
         <v>71</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.0586062116288899</v>
+        <v>-0.0620548513280809</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0634173005015184</v>
+        <v>0.0653172814351821</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.92413601912126</v>
+        <v>-0.95005257360047</v>
       </c>
       <c r="E48" t="n">
-        <v>0.374309991449753</v>
+        <v>0.361579977325635</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.0287270266457996</v>
+        <v>-0.0275435034274131</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0719921737414777</v>
+        <v>0.0731735815735443</v>
       </c>
       <c r="H48" t="n">
-        <v>-0.399029854952814</v>
+        <v>-0.376413219567913</v>
       </c>
       <c r="I48" t="n">
-        <v>0.697369609644012</v>
+        <v>0.713669620107349</v>
       </c>
       <c r="J48"/>
       <c r="K48"/>
@@ -3424,28 +3424,28 @@
         <v>72</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.0251965324296124</v>
+        <v>-0.0253710012198891</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0102608640004145</v>
+        <v>0.0107062937234621</v>
       </c>
       <c r="D49" t="n">
-        <v>-2.45559559395726</v>
+        <v>-2.36972773914191</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0396993447139905</v>
+        <v>0.0451259291603207</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.0204446148489958</v>
+        <v>-0.0204604731519635</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0113074188539086</v>
+        <v>0.0114945146605501</v>
       </c>
       <c r="H49" t="n">
-        <v>-1.80807088807264</v>
+        <v>-1.78002062341833</v>
       </c>
       <c r="I49" t="n">
-        <v>0.110746373080541</v>
+        <v>0.115491558765555</v>
       </c>
       <c r="J49"/>
       <c r="K49"/>
@@ -3469,28 +3469,28 @@
         <v>73</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.00183561131858082</v>
+        <v>-0.00224175020532728</v>
       </c>
       <c r="C50" t="n">
-        <v>0.00650887593497339</v>
+        <v>0.00656793446294133</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.282016639573316</v>
+        <v>-0.34131738341423</v>
       </c>
       <c r="E50" t="n">
-        <v>0.782633606566607</v>
+        <v>0.738676659644194</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.000522054401535067</v>
+        <v>-0.000615151822927343</v>
       </c>
       <c r="G50" t="n">
-        <v>0.00861519539797596</v>
+        <v>0.00862007333823003</v>
       </c>
       <c r="H50" t="n">
-        <v>-0.0605969310525119</v>
+        <v>-0.0713627133772916</v>
       </c>
       <c r="I50" t="n">
-        <v>0.952644609689804</v>
+        <v>0.944244814829227</v>
       </c>
       <c r="J50"/>
       <c r="K50"/>
@@ -3514,28 +3514,28 @@
         <v>74</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.00232903295152164</v>
+        <v>-0.00222289893004461</v>
       </c>
       <c r="C51" t="n">
-        <v>0.00084989042756702</v>
+        <v>0.000901839210941838</v>
       </c>
       <c r="D51" t="n">
-        <v>-2.74039202699218</v>
+        <v>-2.46485061092334</v>
       </c>
       <c r="E51" t="n">
-        <v>0.19585024543971</v>
+        <v>0.219156065387566</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.00238972652342665</v>
+        <v>-0.00237868554528069</v>
       </c>
       <c r="G51" t="n">
-        <v>0.00209199147039215</v>
+        <v>0.00211515598917613</v>
       </c>
       <c r="H51" t="n">
-        <v>-1.14232135132878</v>
+        <v>-1.12459107387498</v>
       </c>
       <c r="I51" t="n">
-        <v>0.439449551792838</v>
+        <v>0.444582881077911</v>
       </c>
       <c r="J51"/>
       <c r="K51"/>
@@ -3559,28 +3559,28 @@
         <v>75</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0324409906272564</v>
+        <v>0.035208132530222</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0169509456202737</v>
+        <v>0.0159602530288911</v>
       </c>
       <c r="D52" t="n">
-        <v>1.91381598136072</v>
+        <v>2.20598836788418</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0868154804423161</v>
+        <v>0.0547211465641371</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0427144506459292</v>
+        <v>0.0428226753627243</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0155117118398942</v>
+        <v>0.0159709087884477</v>
       </c>
       <c r="H52" t="n">
-        <v>2.75369031392608</v>
+        <v>2.68129233783487</v>
       </c>
       <c r="I52" t="n">
-        <v>0.0214488423186021</v>
+        <v>0.0241519702552611</v>
       </c>
       <c r="J52"/>
       <c r="K52"/>
@@ -3604,28 +3604,28 @@
         <v>76</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0265393761076402</v>
+        <v>0.0269682637332134</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0276922192523658</v>
+        <v>0.0247061756316292</v>
       </c>
       <c r="D53" t="n">
-        <v>0.958369420153025</v>
+        <v>1.09155962198731</v>
       </c>
       <c r="E53" t="n">
-        <v>0.357527872672077</v>
+        <v>0.297195075638815</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0487382760954342</v>
+        <v>0.0486026525794744</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0352057435603616</v>
+        <v>0.0351302519105431</v>
       </c>
       <c r="H53" t="n">
-        <v>1.38438422730287</v>
+        <v>1.38349855000294</v>
       </c>
       <c r="I53" t="n">
-        <v>0.194231727909043</v>
+        <v>0.194418610967694</v>
       </c>
       <c r="J53"/>
       <c r="K53"/>
@@ -3649,28 +3649,28 @@
         <v>77</v>
       </c>
       <c r="B54" t="n">
-        <v>0.000000809880488550158</v>
+        <v>0.00000131193532799258</v>
       </c>
       <c r="C54" t="n">
-        <v>0.00000529228101771267</v>
+        <v>0.00000537928146411991</v>
       </c>
       <c r="D54" t="n">
-        <v>0.15303051478929</v>
+        <v>0.243886722928193</v>
       </c>
       <c r="E54" t="n">
-        <v>0.881154863310196</v>
+        <v>0.81183146617712</v>
       </c>
       <c r="F54" t="n">
-        <v>0.00000134361724549034</v>
+        <v>0.00000134286631824027</v>
       </c>
       <c r="G54" t="n">
-        <v>0.00000752449350836531</v>
+        <v>0.00000750521424005451</v>
       </c>
       <c r="H54" t="n">
-        <v>0.178565805658092</v>
+        <v>0.178924448428606</v>
       </c>
       <c r="I54" t="n">
-        <v>0.861515734302048</v>
+        <v>0.861235944632799</v>
       </c>
       <c r="J54"/>
       <c r="K54"/>
@@ -3694,28 +3694,28 @@
         <v>78</v>
       </c>
       <c r="B55" t="n">
-        <v>0.00000978192420457078</v>
+        <v>0.00000980635558339624</v>
       </c>
       <c r="C55" t="n">
-        <v>0.00000304759695187702</v>
+        <v>0.0000032106000893649</v>
       </c>
       <c r="D55" t="n">
-        <v>3.20971715060486</v>
+        <v>3.05436843905903</v>
       </c>
       <c r="E55" t="n">
-        <v>0.00808225751151526</v>
+        <v>0.0108994724960594</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0000107405937495581</v>
+        <v>0.0000107939864807936</v>
       </c>
       <c r="G55" t="n">
-        <v>0.00000404512595529289</v>
+        <v>0.00000404016175611322</v>
       </c>
       <c r="H55" t="n">
-        <v>2.65519389711572</v>
+        <v>2.67167186176668</v>
       </c>
       <c r="I55" t="n">
-        <v>0.0229263773075708</v>
+        <v>0.022271647164677</v>
       </c>
       <c r="J55"/>
       <c r="K55"/>
@@ -3739,16 +3739,16 @@
         <v>79</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.401783984791068</v>
+        <v>-0.382952438394295</v>
       </c>
       <c r="C56" t="n">
-        <v>0.189099817102642</v>
+        <v>0.142346109067937</v>
       </c>
       <c r="D56" t="n">
-        <v>-2.12471905550804</v>
+        <v>-2.69029087554142</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0715956130978466</v>
+        <v>0.0462355500362991</v>
       </c>
       <c r="F56"/>
       <c r="G56"/>
@@ -3776,16 +3776,16 @@
         <v>80</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.174435759830452</v>
+        <v>-0.112556667976023</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0388555836161403</v>
+        <v>0.0408247432823606</v>
       </c>
       <c r="D57" t="n">
-        <v>-4.48933572980724</v>
+        <v>-2.75706982889115</v>
       </c>
       <c r="E57" t="n">
-        <v>0.00125584437120991</v>
+        <v>0.021495327734878</v>
       </c>
       <c r="F57"/>
       <c r="G57"/>
@@ -3813,16 +3813,16 @@
         <v>81</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.240313508321326</v>
+        <v>-0.178292007099956</v>
       </c>
       <c r="C58" t="n">
-        <v>0.156921340667771</v>
+        <v>0.109449387976948</v>
       </c>
       <c r="D58" t="n">
-        <v>-1.53142655612476</v>
+        <v>-1.62899044385253</v>
       </c>
       <c r="E58" t="n">
-        <v>0.151744111569272</v>
+        <v>0.127916298740248</v>
       </c>
       <c r="F58"/>
       <c r="G58"/>
@@ -3850,16 +3850,16 @@
         <v>82</v>
       </c>
       <c r="B59" t="n">
-        <v>0.215629114847643</v>
+        <v>0.270963704891859</v>
       </c>
       <c r="C59" t="n">
-        <v>0.115429445907282</v>
+        <v>0.0991243909237805</v>
       </c>
       <c r="D59" t="n">
-        <v>1.86805986247952</v>
+        <v>2.73357245746116</v>
       </c>
       <c r="E59" t="n">
-        <v>0.090765907182788</v>
+        <v>0.0242898763093194</v>
       </c>
       <c r="F59"/>
       <c r="G59"/>
@@ -3887,16 +3887,16 @@
         <v>83</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.52167129266288</v>
+        <v>-0.543550198223897</v>
       </c>
       <c r="C60" t="n">
-        <v>0.145212924365412</v>
+        <v>0.105010889349479</v>
       </c>
       <c r="D60" t="n">
-        <v>-3.5924577302097</v>
+        <v>-5.17613174777474</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0172742240857365</v>
+        <v>0.00439972565421748</v>
       </c>
       <c r="F60"/>
       <c r="G60"/>
